--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FBD9F3-6714-4372-BC97-9FA19D60B088}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AEC2F4DA-D259-41B6-BBA2-03F23C97A3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BB42B7-F13E-42E8-95DA-D6160FFA7D58}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="204">
   <si>
     <t>celltype</t>
   </si>
@@ -198,33 +198,15 @@
     <t>MultiPlus-12/2000/80</t>
   </si>
   <si>
-    <t>Cargador</t>
-  </si>
-  <si>
-    <t>load_backup</t>
-  </si>
-  <si>
-    <t>inverter_type</t>
-  </si>
-  <si>
     <t>phases</t>
   </si>
   <si>
-    <t>n_max (%)</t>
-  </si>
-  <si>
     <t>Vac_nom (V)</t>
   </si>
   <si>
     <t>Vac_max (V)</t>
   </si>
   <si>
-    <t>Iac_nom (A)</t>
-  </si>
-  <si>
-    <t>Vdc_nom (V)</t>
-  </si>
-  <si>
     <t>MultiPlus-24/2000/50</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
     <t>MultiPlus-12/3000/120</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Off-Grid</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>On-Grid</t>
   </si>
   <si>
-    <t>Conexión a Red</t>
-  </si>
-  <si>
     <t>PRIMO-3.8-1</t>
   </si>
   <si>
@@ -369,18 +345,9 @@
     <t>https://1drv.ms/b/c/952130943b0dd709/ESlcp-RATOJGkTEa59H7DysBaAkwuez6FVM3_WC42cl2bg?e=gBFlfT</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>SEC</t>
   </si>
   <si>
-    <t>DOD</t>
-  </si>
-  <si>
-    <t>C (Ah)</t>
-  </si>
-  <si>
     <t>https://1drv.ms/b/c/952130943b0dd709/EfGeyxjJi2BOq5XRyu3gJm4B4zhhGQzDHN4iekZFNN84Qw?e=gwTx9m</t>
   </si>
   <si>
@@ -393,9 +360,6 @@
     <t>https://1drv.ms/b/c/952130943b0dd709/EYh3TYKqe7NCtMfu008xuR0B1gSxT8z51e7DQcIbpZUgMw?e=6I6bZq</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>GEL</t>
   </si>
   <si>
@@ -408,230 +372,297 @@
     <t>LISMART12200LX</t>
   </si>
   <si>
-    <t>E_nom (kWh)</t>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EfxksFaDq09OmFgPcdvmUbAB9n1DiQMIicBZVVL8vtLLiw?e=E5jpUC</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t>Ultracell</t>
+  </si>
+  <si>
+    <t>UC8-12</t>
+  </si>
+  <si>
+    <t>tank_capacity (l)</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EWkKW0uMcPJKhiXA1PgriMUBX8t6KBwVzBr4b1NYol38RA?e=BTxSZD</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>GEL 12-100</t>
+  </si>
+  <si>
+    <t>Tensite</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EQqC3rnHDCVDs_Rr-4qrelQB4hjAZ6xU9yxY1hHOxFmAtw?e=GBpBOY</t>
+  </si>
+  <si>
+    <t>Blue Carbon</t>
+  </si>
+  <si>
+    <t>BCT-V-24-100</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYbvwuZk0gtLuSt0pnLf7G0BPdiIVoaeUU5BEKZbLRTkig?e=Nt85gK</t>
+  </si>
+  <si>
+    <t>Epever</t>
+  </si>
+  <si>
+    <t>LFP4.8KWH48V-P20R1</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/ETUBzHFcSOFEjKZVTEkQfR8BEHZ1JEfZZItxwiTgDng69w?e=rZQHpX</t>
+  </si>
+  <si>
+    <t>alpha_sc (%/°C)</t>
+  </si>
+  <si>
+    <t>beta_voc (%/°C)</t>
+  </si>
+  <si>
+    <t>gamma_pmp (%/°C)</t>
+  </si>
+  <si>
+    <t>NOCT (°C)</t>
+  </si>
+  <si>
+    <t>Growatt</t>
+  </si>
+  <si>
+    <t>MIN-2500TL-X</t>
+  </si>
+  <si>
+    <t>MIN-3000TL-X</t>
+  </si>
+  <si>
+    <t>MIN-3600TL-X</t>
+  </si>
+  <si>
+    <t>MIN-4200TL-X</t>
+  </si>
+  <si>
+    <t>MIN-4600TL-X</t>
+  </si>
+  <si>
+    <t>MIN-5000TL-X</t>
+  </si>
+  <si>
+    <t>MIN-6000TL-X</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EaxE3ydDhx5Pr1FbXV5dyx4B7ysq4KducrwLe-LnsOGSaw?e=a8X1aC</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYInp2S77Q1HqiRi7O4CK40BziPHepL_miv3-lyTg_QRag?e=bodzQT</t>
+  </si>
+  <si>
+    <t>SPF-4000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>SPF-5000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>SPF-6000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>SPF-8000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>SPF-10000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>SPF-12000T-DVM-MPV</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EbWoMxK9lMNOpO-hU6RQ_ggBJbLIrOlTbq_tPACZNl8XDw?e=tnBjQc</t>
+  </si>
+  <si>
+    <t>GEN-15X</t>
+  </si>
+  <si>
+    <t>TRUPER</t>
+  </si>
+  <si>
+    <t>12-TSG-190</t>
+  </si>
+  <si>
+    <t>GD6500-G</t>
+  </si>
+  <si>
+    <t>12-TSG-210</t>
+  </si>
+  <si>
+    <t>12-TSG-250</t>
+  </si>
+  <si>
+    <t>12-TSG-300</t>
+  </si>
+  <si>
+    <t>GT11MD1300K</t>
+  </si>
+  <si>
+    <t>GS13MD2000K</t>
+  </si>
+  <si>
+    <t>Bee 800</t>
+  </si>
+  <si>
+    <t>RX 1000M</t>
+  </si>
+  <si>
+    <t>RX- 1200M</t>
+  </si>
+  <si>
+    <t>RX-1500M</t>
+  </si>
+  <si>
+    <t>RX-2000M</t>
+  </si>
+  <si>
+    <t>RX-3000L</t>
+  </si>
+  <si>
+    <t>RX-15KG</t>
+  </si>
+  <si>
+    <t>RX-20KG</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EZSPxn4rUTZFpTA3r-HR7a0Bvd8cLKKs9tUs7Uul5ra3CQ?e=irat6v</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYFrRGopUbVMobqqgOLIz8MB4istF21vaq7ZFyNMIpOlfw?e=sxTyuc</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Voc (V)</t>
+  </si>
+  <si>
+    <t>Vpc (V)</t>
+  </si>
+  <si>
+    <t>Impp (A)</t>
+  </si>
+  <si>
+    <t>Isc (A)</t>
+  </si>
+  <si>
+    <t>Vmpp (V)</t>
+  </si>
+  <si>
+    <t>Pmax (W)</t>
+  </si>
+  <si>
+    <t>cells_in_series</t>
+  </si>
+  <si>
+    <t>efficiency_max (%)</t>
+  </si>
+  <si>
+    <t>Monofásico</t>
+  </si>
+  <si>
+    <t>Trifásico</t>
+  </si>
+  <si>
+    <t>Vac_min (V)</t>
+  </si>
+  <si>
+    <t>Pac_max (kW)</t>
+  </si>
+  <si>
+    <t>xantrex</t>
+  </si>
+  <si>
+    <t>PROwatt-SW-600</t>
+  </si>
+  <si>
+    <t>PROwatt-SW-1000</t>
+  </si>
+  <si>
+    <t>PROwatt-SW-2000</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EUW64AQ3rG1DjNQv5fTaVbsBe5FuDLRk0UMtowUQMs9b7w?e=ulcgx0</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EUW64AQ3rG1DjNQv5fTaVbsBe5FuDLRk0UMtowUQMs9b7w?e=ulcgx1</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EUW64AQ3rG1DjNQv5fTaVbsBe5FuDLRk0UMtowUQMs9b7w?e=ulcgx2</t>
+  </si>
+  <si>
+    <t>grid_type</t>
+  </si>
+  <si>
+    <t>Vbb_nom (V)</t>
+  </si>
+  <si>
+    <t>efficiency (%)</t>
+  </si>
+  <si>
+    <t>battery_type</t>
+  </si>
+  <si>
+    <t>12-TSG-110</t>
+  </si>
+  <si>
+    <t>12-TSG-120</t>
+  </si>
+  <si>
+    <t>12-TSG-130</t>
+  </si>
+  <si>
+    <t>12-TSG-150</t>
+  </si>
+  <si>
+    <t>12-TSG-170</t>
+  </si>
+  <si>
+    <t>I_recommend_charge (A)</t>
+  </si>
+  <si>
+    <t>I_max_charge (A)</t>
+  </si>
+  <si>
+    <t>I_max_discharge (A)</t>
+  </si>
+  <si>
+    <t>12-TSG-100</t>
+  </si>
+  <si>
+    <t>capacity (Ah)</t>
+  </si>
+  <si>
+    <t>V_nom (V)</t>
   </si>
   <si>
     <t>V_max (V)</t>
   </si>
   <si>
     <t>V_min (V)</t>
-  </si>
-  <si>
-    <t>I_max (A)</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EfxksFaDq09OmFgPcdvmUbAB9n1DiQMIicBZVVL8vtLLiw?e=E5jpUC</t>
-  </si>
-  <si>
-    <t>AGM</t>
-  </si>
-  <si>
-    <t>Ultracell</t>
-  </si>
-  <si>
-    <t>UC8-12</t>
-  </si>
-  <si>
-    <t>tank_capacity (l)</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EWkKW0uMcPJKhiXA1PgriMUBX8t6KBwVzBr4b1NYol38RA?e=BTxSZD</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>GEL 12-100</t>
-  </si>
-  <si>
-    <t>Tensite</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EQqC3rnHDCVDs_Rr-4qrelQB4hjAZ6xU9yxY1hHOxFmAtw?e=GBpBOY</t>
-  </si>
-  <si>
-    <t>Blue Carbon</t>
-  </si>
-  <si>
-    <t>BCT-V-24-100</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYbvwuZk0gtLuSt0pnLf7G0BPdiIVoaeUU5BEKZbLRTkig?e=Nt85gK</t>
-  </si>
-  <si>
-    <t>Epever</t>
-  </si>
-  <si>
-    <t>LFP4.8KWH48V-P20R1</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/ETUBzHFcSOFEjKZVTEkQfR8BEHZ1JEfZZItxwiTgDng69w?e=rZQHpX</t>
-  </si>
-  <si>
-    <t>alpha_sc (%/°C)</t>
-  </si>
-  <si>
-    <t>beta_voc (%/°C)</t>
-  </si>
-  <si>
-    <t>gamma_pmp (%/°C)</t>
-  </si>
-  <si>
-    <t>NOCT (°C)</t>
-  </si>
-  <si>
-    <t>Growatt</t>
-  </si>
-  <si>
-    <t>MIN-2500TL-X</t>
-  </si>
-  <si>
-    <t>MIN-3000TL-X</t>
-  </si>
-  <si>
-    <t>MIN-3600TL-X</t>
-  </si>
-  <si>
-    <t>MIN-4200TL-X</t>
-  </si>
-  <si>
-    <t>MIN-4600TL-X</t>
-  </si>
-  <si>
-    <t>MIN-5000TL-X</t>
-  </si>
-  <si>
-    <t>MIN-6000TL-X</t>
-  </si>
-  <si>
-    <t>Pac_nom (kW)</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EaxE3ydDhx5Pr1FbXV5dyx4B7ysq4KducrwLe-LnsOGSaw?e=a8X1aC</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYInp2S77Q1HqiRi7O4CK40BziPHepL_miv3-lyTg_QRag?e=bodzQT</t>
-  </si>
-  <si>
-    <t>SPF-4000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>SPF-5000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>SPF-6000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>SPF-8000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>SPF-10000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>SPF-12000T-DVM-MPV</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EbWoMxK9lMNOpO-hU6RQ_ggBJbLIrOlTbq_tPACZNl8XDw?e=tnBjQc</t>
-  </si>
-  <si>
-    <t>GEN-15X</t>
-  </si>
-  <si>
-    <t>TRUPER</t>
-  </si>
-  <si>
-    <t>12-TSG-190</t>
-  </si>
-  <si>
-    <t>GD6500-G</t>
-  </si>
-  <si>
-    <t>12-TSG-210</t>
-  </si>
-  <si>
-    <t>12-TSG-250</t>
-  </si>
-  <si>
-    <t>12-TSG-300</t>
-  </si>
-  <si>
-    <t>GT11MD1300K</t>
-  </si>
-  <si>
-    <t>GS13MD2000K</t>
-  </si>
-  <si>
-    <t>Bee 800</t>
-  </si>
-  <si>
-    <t>RX 1000M</t>
-  </si>
-  <si>
-    <t>RX- 1200M</t>
-  </si>
-  <si>
-    <t>RX-1500M</t>
-  </si>
-  <si>
-    <t>RX-2000M</t>
-  </si>
-  <si>
-    <t>RX-3000L</t>
-  </si>
-  <si>
-    <t>RX-15KG</t>
-  </si>
-  <si>
-    <t>RX-20KG</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EZSPxn4rUTZFpTA3r-HR7a0Bvd8cLKKs9tUs7Uul5ra3CQ?e=irat6v</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYFrRGopUbVMobqqgOLIz8MB4istF21vaq7ZFyNMIpOlfw?e=sxTyuc</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>Voc (V)</t>
-  </si>
-  <si>
-    <t>Vpc (V)</t>
-  </si>
-  <si>
-    <t>Impp (A)</t>
-  </si>
-  <si>
-    <t>Isc (A)</t>
-  </si>
-  <si>
-    <t>Vmpp (V)</t>
-  </si>
-  <si>
-    <t>Pmax (W)</t>
-  </si>
-  <si>
-    <t>cells_in_series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +680,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -671,8 +710,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -688,17 +728,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1033,9 +1072,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492E78C5-90A9-46FA-86C6-8F8B6C23D053}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,34 +1103,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -2423,11 +2464,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD4EA4-558D-4153-886C-368655763902}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,16 +2478,15 @@
     <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2452,925 +2494,804 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.6</v>
       </c>
       <c r="F2" s="3">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3">
+        <v>104</v>
+      </c>
+      <c r="I2" s="3">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="F3" s="3">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3">
+        <v>127</v>
+      </c>
+      <c r="H3" s="3">
+        <v>104</v>
+      </c>
+      <c r="I3" s="3">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="F4" s="3">
         <v>120</v>
       </c>
-      <c r="I2" s="3">
+      <c r="G4" s="3">
         <v>127</v>
       </c>
-      <c r="J2" s="7">
-        <f>(G2*1000)/H2</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="H4" s="3">
+        <v>104</v>
+      </c>
+      <c r="I4" s="3">
         <v>12</v>
       </c>
-      <c r="L2" s="3">
-        <v>92</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>120</v>
-      </c>
-      <c r="I3" s="3">
-        <v>127</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:J23" si="0">(G3*1000)/H3</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="K3" s="3">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3">
-        <v>94</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3">
-        <v>127</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K4" s="3">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3">
-        <v>93</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>120</v>
+      </c>
+      <c r="G5" s="3">
+        <v>127</v>
+      </c>
+      <c r="I5" s="3">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>92</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3">
+        <v>127</v>
+      </c>
+      <c r="I6" s="3">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3">
+        <v>94</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>120</v>
+      </c>
+      <c r="G7" s="3">
+        <v>127</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3">
+        <v>93</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>120</v>
+      </c>
+      <c r="G8" s="3">
+        <v>127</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>220</v>
+      </c>
+      <c r="G9" s="3">
+        <v>240</v>
+      </c>
+      <c r="J9" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>220</v>
+      </c>
+      <c r="G10" s="3">
+        <v>240</v>
+      </c>
+      <c r="J10" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>220</v>
+      </c>
+      <c r="G11" s="3">
+        <v>240</v>
+      </c>
+      <c r="J11" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>220</v>
+      </c>
+      <c r="G12" s="3">
+        <v>240</v>
+      </c>
+      <c r="J12" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F13" s="3">
+        <v>220</v>
+      </c>
+      <c r="G13" s="3">
+        <v>240</v>
+      </c>
+      <c r="J13" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>240</v>
+      </c>
+      <c r="G14" s="3">
+        <v>264</v>
+      </c>
+      <c r="J14" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="F15" s="3">
+        <v>240</v>
+      </c>
+      <c r="G15" s="3">
+        <v>264</v>
+      </c>
+      <c r="J15" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>240</v>
+      </c>
+      <c r="G16" s="3">
+        <v>264</v>
+      </c>
+      <c r="J16" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>240</v>
+      </c>
+      <c r="G17" s="3">
+        <v>264</v>
+      </c>
+      <c r="J17" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3">
+        <v>264</v>
+      </c>
+      <c r="J18" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>240</v>
+      </c>
+      <c r="G19" s="3">
+        <v>264</v>
+      </c>
+      <c r="J19" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>240</v>
+      </c>
+      <c r="G20" s="3">
+        <v>264</v>
+      </c>
+      <c r="J20" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>120</v>
       </c>
-      <c r="I5" s="3">
-        <v>127</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K5" s="3">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H6" s="3">
-        <v>220</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G21" s="3">
         <v>240</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>17.272727272727273</v>
-      </c>
-      <c r="L6" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="I21" s="3">
+        <v>48</v>
+      </c>
+      <c r="J21" s="3">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
-        <v>220</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="F22" s="3">
+        <v>120</v>
+      </c>
+      <c r="G22" s="3">
         <v>240</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="L7" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="I22" s="3">
+        <v>48</v>
+      </c>
+      <c r="J22" s="3">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="H8" s="3">
-        <v>220</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="F23" s="3">
+        <v>120</v>
+      </c>
+      <c r="G23" s="3">
         <v>240</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>27.272727272727273</v>
-      </c>
-      <c r="L8" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>220</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I23" s="3">
+        <v>48</v>
+      </c>
+      <c r="J23" s="3">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>120</v>
+      </c>
+      <c r="G24" s="3">
         <v>240</v>
       </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>34.545454545454547</v>
-      </c>
-      <c r="L9" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H10" s="3">
-        <v>220</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I24" s="3">
+        <v>48</v>
+      </c>
+      <c r="J24" s="3">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>120</v>
+      </c>
+      <c r="G25" s="3">
         <v>240</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>37.272727272727273</v>
-      </c>
-      <c r="L10" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="I25" s="3">
+        <v>48</v>
+      </c>
+      <c r="J25" s="3">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>120</v>
+      </c>
+      <c r="G26" s="3">
         <v>240</v>
       </c>
-      <c r="I11" s="3">
-        <v>264</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>10.416666666666666</v>
-      </c>
-      <c r="L11" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="I26" s="3">
+        <v>48</v>
+      </c>
+      <c r="J26" s="3">
+        <v>85</v>
+      </c>
+      <c r="K26" t="s">
         <v>146</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>240</v>
-      </c>
-      <c r="I12" s="3">
-        <v>264</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>240</v>
-      </c>
-      <c r="I13" s="3">
-        <v>264</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L13" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>240</v>
-      </c>
-      <c r="I14" s="3">
-        <v>264</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H15" s="3">
-        <v>240</v>
-      </c>
-      <c r="I15" s="3">
-        <v>264</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="0"/>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="L15" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>240</v>
-      </c>
-      <c r="I16" s="3">
-        <v>264</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="0"/>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="L16" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3">
-        <v>240</v>
-      </c>
-      <c r="I17" s="3">
-        <v>264</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L17" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>120</v>
-      </c>
-      <c r="I18" s="3">
-        <v>240</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K18" s="3">
-        <v>48</v>
-      </c>
-      <c r="L18" s="3">
-        <v>85</v>
-      </c>
-      <c r="M18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>120</v>
-      </c>
-      <c r="I19" s="3">
-        <v>240</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="K19" s="3">
-        <v>48</v>
-      </c>
-      <c r="L19" s="3">
-        <v>85</v>
-      </c>
-      <c r="M19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>120</v>
-      </c>
-      <c r="I20" s="3">
-        <v>240</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K20" s="3">
-        <v>48</v>
-      </c>
-      <c r="L20" s="3">
-        <v>85</v>
-      </c>
-      <c r="M20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>120</v>
-      </c>
-      <c r="I21" s="3">
-        <v>240</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K21" s="3">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3">
-        <v>85</v>
-      </c>
-      <c r="M21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
-        <v>120</v>
-      </c>
-      <c r="I22" s="3">
-        <v>240</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="K22" s="3">
-        <v>48</v>
-      </c>
-      <c r="L22" s="3">
-        <v>85</v>
-      </c>
-      <c r="M22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3">
-        <v>120</v>
-      </c>
-      <c r="I23" s="3">
-        <v>240</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>48</v>
-      </c>
-      <c r="L23" s="3">
-        <v>85</v>
-      </c>
-      <c r="M23" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3381,23 +3302,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3405,385 +3335,652 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="3">
-        <v>150</v>
+        <v>106</v>
+      </c>
+      <c r="D2" s="2">
+        <v>78.900000000000006</v>
       </c>
       <c r="E2" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
         <v>13</v>
       </c>
       <c r="G2" s="3">
         <v>11.5</v>
       </c>
       <c r="H2" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3">
+        <v>105</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="3">
+        <v>119</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3">
+        <v>133</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="J7" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3">
+        <v>150</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H8" s="6">
         <v>30</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I8" s="6">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="3">
+        <v>167</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3">
+        <v>202</v>
+      </c>
+      <c r="E10" s="6">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="3">
+        <v>235</v>
+      </c>
+      <c r="E11" s="6">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6">
+        <v>47</v>
+      </c>
+      <c r="J11" s="6">
+        <v>47</v>
+      </c>
+      <c r="K11" s="3">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3">
+        <v>150</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="F13" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6">
+        <v>150</v>
+      </c>
+      <c r="I13" s="6">
+        <v>150</v>
+      </c>
+      <c r="J13" s="3">
+        <v>100</v>
+      </c>
+      <c r="K13" s="3">
+        <v>96</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>120</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="J14" s="3">
         <v>0.8</v>
       </c>
-      <c r="J2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="K14" s="3">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="3">
-        <v>167</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2004</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
         <v>13</v>
       </c>
-      <c r="G3" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>33.4</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3">
-        <v>202</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2424</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>40.4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="3">
-        <v>235</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2820</v>
-      </c>
-      <c r="F5" s="3">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G15" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>900</v>
+      </c>
+      <c r="I15" s="6">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
+        <v>90</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="3">
-        <v>150</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="H6" s="3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="G16" s="6">
         <v>20</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2560</v>
-      </c>
-      <c r="F7" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3">
-        <v>150</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="H8" s="3">
-        <v>120</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="H16" s="6">
         <v>100</v>
       </c>
-      <c r="E9" s="5">
-        <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="I16" s="6">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3">
+        <v>50</v>
+      </c>
+      <c r="K16" s="3">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>2.56</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25.6</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="E17" s="6">
+        <v>48</v>
+      </c>
+      <c r="F17" s="6">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6">
+        <v>39</v>
+      </c>
+      <c r="H17" s="6">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4800</v>
-      </c>
-      <c r="F11" s="3">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3">
-        <v>100</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>141</v>
-      </c>
+      <c r="I17" s="6">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3">
+        <v>50</v>
+      </c>
+      <c r="K17" s="3">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L15" r:id="rId1" xr:uid="{180D663E-26A9-4F02-AAEC-3E97046F1379}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3793,8 +3990,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,31 +4015,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -3848,10 +4047,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3">
         <v>0.8</v>
@@ -3862,16 +4061,16 @@
       <c r="E2" s="3">
         <v>120</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G2" s="3">
         <v>0.8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="7">
+        <v>92</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.76</v>
       </c>
       <c r="J2" s="3">
@@ -3881,15 +4080,15 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3">
         <v>2.2999999999999998</v>
@@ -3900,16 +4099,16 @@
       <c r="E3" s="3">
         <v>120</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
+      <c r="F3" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="7">
+        <v>92</v>
+      </c>
+      <c r="I3" s="5">
         <v>2.27</v>
       </c>
       <c r="J3" s="3">
@@ -3919,15 +4118,15 @@
         <v>15.1</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3">
         <v>2.8</v>
@@ -3938,16 +4137,16 @@
       <c r="E4" s="3">
         <v>120</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
+      <c r="F4" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="7">
+        <v>92</v>
+      </c>
+      <c r="I4" s="5">
         <v>2.27</v>
       </c>
       <c r="J4" s="3">
@@ -3957,15 +4156,15 @@
         <v>15.1</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -3976,16 +4175,16 @@
       <c r="E5" s="3">
         <v>120</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
+      <c r="F5" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G5" s="3">
         <v>0.8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
+        <v>88</v>
+      </c>
+      <c r="I5" s="5">
         <v>2.08</v>
       </c>
       <c r="J5" s="3">
@@ -3995,15 +4194,15 @@
         <v>12.1</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
@@ -4014,16 +4213,16 @@
       <c r="E6" s="3">
         <v>120</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
+      <c r="F6" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="7">
+        <v>88</v>
+      </c>
+      <c r="I6" s="5">
         <v>2.1280000000000001</v>
       </c>
       <c r="J6" s="3">
@@ -4033,15 +4232,15 @@
         <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3">
         <v>10.199999999999999</v>
@@ -4052,16 +4251,16 @@
       <c r="E7" s="3">
         <v>120</v>
       </c>
-      <c r="F7" s="3">
-        <v>3</v>
+      <c r="F7" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7">
+        <v>88</v>
+      </c>
+      <c r="I7" s="5">
         <v>2.7130000000000001</v>
       </c>
       <c r="J7" s="3">
@@ -4072,15 +4271,15 @@
         <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -4091,16 +4290,16 @@
       <c r="E8" s="3">
         <v>120</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
+      <c r="F8" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
+        <v>88</v>
+      </c>
+      <c r="I8" s="5">
         <v>2.66</v>
       </c>
       <c r="J8" s="3">
@@ -4111,15 +4310,15 @@
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
@@ -4130,16 +4329,16 @@
       <c r="E9" s="3">
         <v>220</v>
       </c>
-      <c r="F9" s="3">
-        <v>3</v>
+      <c r="F9" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G9" s="3">
         <v>0.8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="7">
+        <v>88</v>
+      </c>
+      <c r="I9" s="5">
         <v>5.0199999999999996</v>
       </c>
       <c r="J9" s="3">
@@ -4149,15 +4348,15 @@
         <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3">
         <v>1.5</v>
@@ -4168,16 +4367,16 @@
       <c r="E10" s="3">
         <v>120</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
+      <c r="F10" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="7">
+        <v>92</v>
+      </c>
+      <c r="I10" s="5">
         <v>2</v>
       </c>
       <c r="J10" s="3">
@@ -4187,7 +4386,7 @@
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4200,8 +4399,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4218,19 +4419,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4238,10 +4439,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2">
         <v>1.75</v>
@@ -4259,15 +4460,15 @@
         <v>0.8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2">
         <v>1.83</v>
@@ -4285,15 +4486,15 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2">
         <v>1.95</v>
@@ -4311,15 +4512,15 @@
         <v>1.2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2">
         <v>2.1</v>
@@ -4337,15 +4538,15 @@
         <v>1.5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2">
         <v>2.2999999999999998</v>
@@ -4363,15 +4564,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2">
         <v>3.45</v>
@@ -4389,15 +4590,15 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2">
         <v>5.85</v>
@@ -4415,15 +4616,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2">
         <v>6.4</v>
@@ -4441,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AEC2F4DA-D259-41B6-BBA2-03F23C97A3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BB42B7-F13E-42E8-95DA-D6160FFA7D58}"/>
+  <xr:revisionPtr revIDLastSave="1288" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844B5086-362C-4B6B-ADB7-E559147200A3}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
-    <sheet name="INV" sheetId="2" r:id="rId2"/>
-    <sheet name="BAT" sheetId="5" r:id="rId3"/>
-    <sheet name="GE" sheetId="3" r:id="rId4"/>
-    <sheet name="AERO" sheetId="6" r:id="rId5"/>
+    <sheet name="INV_PV" sheetId="2" r:id="rId2"/>
+    <sheet name="INV_AERO" sheetId="8" r:id="rId3"/>
+    <sheet name="BAT" sheetId="5" r:id="rId4"/>
+    <sheet name="GE" sheetId="3" r:id="rId5"/>
+    <sheet name="AERO" sheetId="6" r:id="rId6"/>
+    <sheet name="RC" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="265">
   <si>
     <t>celltype</t>
   </si>
@@ -198,6 +200,12 @@
     <t>MultiPlus-12/2000/80</t>
   </si>
   <si>
+    <t>Cargador</t>
+  </si>
+  <si>
+    <t>load_backup</t>
+  </si>
+  <si>
     <t>phases</t>
   </si>
   <si>
@@ -207,6 +215,9 @@
     <t>Vac_max (V)</t>
   </si>
   <si>
+    <t>Vdc_nom (V)</t>
+  </si>
+  <si>
     <t>MultiPlus-24/2000/50</t>
   </si>
   <si>
@@ -225,6 +236,9 @@
     <t>On-Grid</t>
   </si>
   <si>
+    <t>Conexión a Red</t>
+  </si>
+  <si>
     <t>PRIMO-3.8-1</t>
   </si>
   <si>
@@ -348,6 +362,12 @@
     <t>SEC</t>
   </si>
   <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>C (Ah)</t>
+  </si>
+  <si>
     <t>https://1drv.ms/b/c/952130943b0dd709/EfGeyxjJi2BOq5XRyu3gJm4B4zhhGQzDHN4iekZFNN84Qw?e=gwTx9m</t>
   </si>
   <si>
@@ -372,6 +392,15 @@
     <t>LISMART12200LX</t>
   </si>
   <si>
+    <t>V_max (V)</t>
+  </si>
+  <si>
+    <t>V_min (V)</t>
+  </si>
+  <si>
+    <t>I_max (A)</t>
+  </si>
+  <si>
     <t>https://1drv.ms/b/c/952130943b0dd709/EfxksFaDq09OmFgPcdvmUbAB9n1DiQMIicBZVVL8vtLLiw?e=E5jpUC</t>
   </si>
   <si>
@@ -456,6 +485,12 @@
     <t>MIN-6000TL-X</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>https://1drv.ms/b/c/952130943b0dd709/EaxE3ydDhx5Pr1FbXV5dyx4B7ysq4KducrwLe-LnsOGSaw?e=a8X1aC</t>
   </si>
   <si>
@@ -606,61 +641,210 @@
     <t>grid_type</t>
   </si>
   <si>
-    <t>Vbb_nom (V)</t>
-  </si>
-  <si>
-    <t>efficiency (%)</t>
-  </si>
-  <si>
-    <t>battery_type</t>
+    <t>inv_type</t>
+  </si>
+  <si>
+    <t>12-TSG-170</t>
+  </si>
+  <si>
+    <t>12-TSG-150</t>
+  </si>
+  <si>
+    <t>12-TSG-130</t>
+  </si>
+  <si>
+    <t>12-TSG-120</t>
   </si>
   <si>
     <t>12-TSG-110</t>
   </si>
   <si>
-    <t>12-TSG-120</t>
-  </si>
-  <si>
-    <t>12-TSG-130</t>
-  </si>
-  <si>
-    <t>12-TSG-150</t>
-  </si>
-  <si>
-    <t>12-TSG-170</t>
-  </si>
-  <si>
-    <t>I_recommend_charge (A)</t>
-  </si>
-  <si>
-    <t>I_max_charge (A)</t>
-  </si>
-  <si>
-    <t>I_max_discharge (A)</t>
-  </si>
-  <si>
-    <t>12-TSG-100</t>
-  </si>
-  <si>
-    <t>capacity (Ah)</t>
-  </si>
-  <si>
-    <t>V_nom (V)</t>
-  </si>
-  <si>
-    <t>V_max (V)</t>
-  </si>
-  <si>
-    <t>V_min (V)</t>
+    <t>Vdc_bb (V)</t>
+  </si>
+  <si>
+    <t>Imax_bb(V)</t>
+  </si>
+  <si>
+    <t>12/24/48</t>
+  </si>
+  <si>
+    <t>MPPT 75/10</t>
+  </si>
+  <si>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>MPPT 75/15</t>
+  </si>
+  <si>
+    <t>MPPT 100/15</t>
+  </si>
+  <si>
+    <t>MPPT 100/20</t>
+  </si>
+  <si>
+    <t>Pmax (kW)</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q</t>
+  </si>
+  <si>
+    <t>EPEVER</t>
+  </si>
+  <si>
+    <t>Tracer6210AN</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYgsv5zAAz9EjADadoGC55QBPZvN4Kbc4LBszRh8HFpP8w?e=d0KGLP</t>
+  </si>
+  <si>
+    <t>Tracer5415AN</t>
+  </si>
+  <si>
+    <t>Tracer6415AN</t>
+  </si>
+  <si>
+    <t>12/24/36/48</t>
+  </si>
+  <si>
+    <t>12/24/36/49</t>
+  </si>
+  <si>
+    <t>Tracer8415AN</t>
+  </si>
+  <si>
+    <t>12/24/36/50</t>
+  </si>
+  <si>
+    <t>Tracer10415AN</t>
+  </si>
+  <si>
+    <t>WIND 13+</t>
+  </si>
+  <si>
+    <t>WIND 23+</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYK_wdMf8PtOpFqYuvGT3boBQtXLl8YMuWP80_6uobCjzw?e=sASVqc</t>
+  </si>
+  <si>
+    <t>SPRECO</t>
+  </si>
+  <si>
+    <t>SilentShark s401</t>
+  </si>
+  <si>
+    <t>SilentShark s601</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EQZfQK33kxlBmTtbFghDkOUB0lOfZlj5hM5mfzu5mUoH9g?e=cNKhCm</t>
+  </si>
+  <si>
+    <t>OutBack POWER</t>
+  </si>
+  <si>
+    <t>FLEXmax60</t>
+  </si>
+  <si>
+    <t>FLEXmax80</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/Ef8k6WTAdNdOkP_MtmipDysBbqBgX86JgQt-l9Aq0PfnRQ?e=cz3yPe</t>
+  </si>
+  <si>
+    <t>WindPower</t>
+  </si>
+  <si>
+    <t>MXWND-001</t>
+  </si>
+  <si>
+    <t>MXWND-002</t>
+  </si>
+  <si>
+    <t>MXWND-003</t>
+  </si>
+  <si>
+    <t>MXWND-004</t>
+  </si>
+  <si>
+    <t>MXWND-005</t>
+  </si>
+  <si>
+    <t>MXWND-006</t>
+  </si>
+  <si>
+    <t>MXWND-007</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM</t>
+  </si>
+  <si>
+    <t>Powest</t>
+  </si>
+  <si>
+    <t>5kW</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EezI42P0lmFNomaTssnWCdEBUlcrxyrrCWy-3kS4DzH2gg?e=z3bWuC</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/ES8ZrTTGDBdApLmeHSrMj-kBq3kGkthippBDT1ZbQCTuww?e=pfS24i</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>SUN-1000G2</t>
+  </si>
+  <si>
+    <t>SUN-2000G2</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYm_4LkVSpJEj1WpK4odRCwBhDV2J-A0SbQBdjIzXTr-HQ?e=PYLX0W</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>UNO-2.0-I-OUTD</t>
+  </si>
+  <si>
+    <t>UNO-2.5-I-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-3.0-TL-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-3.6-TL-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-4.2-TL-OUTD</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/Ee30UNqVhoBPtBziUtGSgS8B6bQuadtpqpk1SR5Xz8DKqA?e=1alcBP</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm</t>
+  </si>
+  <si>
+    <t>MPPT_WIND-13_Plus</t>
+  </si>
+  <si>
+    <t>MPPT_WIND-15_Plus</t>
+  </si>
+  <si>
+    <t>bat_type</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -714,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -731,10 +915,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1073,10 +1260,8 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1274,8 @@
     <col min="11" max="11" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="3"/>
+    <col min="14" max="14" width="96" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1103,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -1176,7 +1362,7 @@
       <c r="M2" s="3">
         <v>72</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1220,7 +1406,7 @@
       <c r="M3" s="3">
         <v>72</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1264,7 +1450,7 @@
       <c r="M4" s="3">
         <v>72</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1308,7 +1494,7 @@
       <c r="M5" s="3">
         <v>72</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1352,7 +1538,7 @@
       <c r="M6" s="3">
         <v>72</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1396,7 +1582,7 @@
       <c r="M7" s="3">
         <v>144</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1440,7 +1626,7 @@
       <c r="M8" s="3">
         <v>144</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1484,7 +1670,7 @@
       <c r="M9" s="3">
         <v>144</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1528,7 +1714,7 @@
       <c r="M10" s="3">
         <v>144</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1572,7 +1758,7 @@
       <c r="M11" s="3">
         <v>144</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1616,7 +1802,7 @@
       <c r="M12" s="3">
         <v>156</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1660,7 +1846,7 @@
       <c r="M13" s="3">
         <v>156</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1704,7 +1890,7 @@
       <c r="M14" s="3">
         <v>156</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1748,7 +1934,7 @@
       <c r="M15" s="3">
         <v>156</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1792,7 +1978,7 @@
       <c r="M16" s="3">
         <v>156</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1836,7 +2022,7 @@
       <c r="M17" s="3">
         <v>72</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1880,7 +2066,7 @@
       <c r="M18" s="3">
         <v>72</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1924,7 +2110,7 @@
       <c r="M19" s="3">
         <v>72</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1968,7 +2154,7 @@
       <c r="M20" s="3">
         <v>132</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2012,7 +2198,7 @@
       <c r="M21" s="3">
         <v>132</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2056,7 +2242,7 @@
       <c r="M22" s="3">
         <v>132</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2100,7 +2286,7 @@
       <c r="M23" s="3">
         <v>132</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2144,7 +2330,7 @@
       <c r="M24" s="3">
         <v>132</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2188,7 +2374,7 @@
       <c r="M25" s="3">
         <v>132</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2232,7 +2418,7 @@
       <c r="M26" s="3">
         <v>144</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2276,7 +2462,7 @@
       <c r="M27" s="3">
         <v>144</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2320,7 +2506,7 @@
       <c r="M28" s="3">
         <v>144</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2364,7 +2550,7 @@
       <c r="M29" s="3">
         <v>144</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2408,7 +2594,7 @@
       <c r="M30" s="3">
         <v>144</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2452,25 +2638,55 @@
       <c r="M31" s="3">
         <v>144</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{CEFAD094-396B-48F5-ADFA-C391C1AB81DF}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{C1B9E63D-C743-4CEF-848D-2A6743ACA5C2}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{6B5E6D33-9866-4BFB-8A10-D2AEF721C34A}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{16AB1573-4577-46DD-BC34-AADCFB1B774D}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{15AD110B-AECD-4414-BCDF-1A4E3DEF30B7}"/>
+    <hyperlink ref="N7" r:id="rId6" xr:uid="{E40C9F95-5C00-40C8-A896-5B54376E16F9}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{E9F9CA94-4AE4-4666-9672-34891EA56196}"/>
+    <hyperlink ref="N9" r:id="rId8" xr:uid="{1D74E93D-BBAF-4B4B-9F06-046D68653A3D}"/>
+    <hyperlink ref="N10" r:id="rId9" xr:uid="{971134D5-B6F2-4364-958B-25B6F42EAD25}"/>
+    <hyperlink ref="N11" r:id="rId10" xr:uid="{4F028D77-2611-4AE3-87A9-BCC7D97E65E1}"/>
+    <hyperlink ref="N12" r:id="rId11" xr:uid="{7B51EAF2-2071-4389-AF3B-5D623088067B}"/>
+    <hyperlink ref="N13" r:id="rId12" xr:uid="{2E3A1209-8C65-4AAA-911E-9D7E1853DBAF}"/>
+    <hyperlink ref="N14" r:id="rId13" xr:uid="{B141C45A-354D-48B6-9020-D9A933B8D070}"/>
+    <hyperlink ref="N15" r:id="rId14" xr:uid="{2E8C19B2-B0F0-4FF5-A7F7-B0DEAF70B90E}"/>
+    <hyperlink ref="N16" r:id="rId15" xr:uid="{0A0E5EAF-8EE6-4A45-A1D7-7C31FE89CB76}"/>
+    <hyperlink ref="N17" r:id="rId16" xr:uid="{77C6F985-D45F-433A-953C-39F252E9D7B9}"/>
+    <hyperlink ref="N18" r:id="rId17" xr:uid="{B25442CE-BF36-46B5-A3A7-DC3911B5DE2E}"/>
+    <hyperlink ref="N19" r:id="rId18" xr:uid="{9D95A8B1-BD7C-4C48-B3D7-CFDBB2D79C97}"/>
+    <hyperlink ref="N20" r:id="rId19" xr:uid="{307F9F3F-EC6E-4860-992B-815F20C266FE}"/>
+    <hyperlink ref="N21" r:id="rId20" xr:uid="{70EE8EBE-16DA-47F0-A313-857566342DA4}"/>
+    <hyperlink ref="N23" r:id="rId21" xr:uid="{E72F7AD7-133D-4FC6-97A0-4E675EF26434}"/>
+    <hyperlink ref="N24" r:id="rId22" xr:uid="{7DE2094E-F0B4-4B88-B753-B0AC5F0049C9}"/>
+    <hyperlink ref="N25" r:id="rId23" xr:uid="{B8AAE54F-81C0-4641-8473-B4AFDEEB7AB3}"/>
+    <hyperlink ref="N26" r:id="rId24" xr:uid="{4E26349A-D3DE-41E5-8B3F-4231112AE8EA}"/>
+    <hyperlink ref="N27" r:id="rId25" xr:uid="{1B5F5C50-6F54-4B2D-96B8-BF1F2A633261}"/>
+    <hyperlink ref="N28" r:id="rId26" xr:uid="{75E39FE8-26A6-4772-81B7-9B816F0DDBAD}"/>
+    <hyperlink ref="N29" r:id="rId27" xr:uid="{6610919C-26EB-4E0C-96DF-ECEC20BB3599}"/>
+    <hyperlink ref="N30" r:id="rId28" xr:uid="{91789CD0-1DE7-4A2A-BE46-6B4EF7E9A5A5}"/>
+    <hyperlink ref="N31" r:id="rId29" xr:uid="{7A79904D-0C02-43F5-94E0-789025C416A4}"/>
+    <hyperlink ref="N22" r:id="rId30" xr:uid="{DCC4FA7B-412B-4DC0-83E7-457B58BCAD48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD4EA4-558D-4153-886C-368655763902}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,15 +2694,18 @@
     <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="3"/>
-    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2494,139 +2713,163 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>120</v>
+      </c>
+      <c r="I2" s="3">
+        <v>127</v>
+      </c>
+      <c r="J2" s="3">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>120</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I3" s="3">
         <v>127</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J3" s="3">
         <v>104</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K3" s="3">
         <v>12</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L3" s="3">
         <v>90</v>
       </c>
-      <c r="K2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="M3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
         <v>120</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I4" s="3">
         <v>127</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J4" s="3">
         <v>104</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K4" s="3">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L4" s="3">
         <v>90</v>
       </c>
-      <c r="K3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>120</v>
-      </c>
-      <c r="G4" s="3">
-        <v>127</v>
-      </c>
-      <c r="H4" s="3">
-        <v>104</v>
-      </c>
-      <c r="I4" s="3">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -2634,700 +2877,1650 @@
         <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="3">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>120</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>127</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>12</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>92</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="3">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>120</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>127</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>94</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="3">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>120</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <v>127</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>12</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>93</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="3">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>120</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>127</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>220</v>
+      </c>
+      <c r="I9" s="3">
+        <v>240</v>
+      </c>
+      <c r="L9" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>220</v>
+      </c>
+      <c r="I10" s="3">
+        <v>240</v>
+      </c>
+      <c r="L10" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>220</v>
+      </c>
+      <c r="I11" s="3">
+        <v>240</v>
+      </c>
+      <c r="L11" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>220</v>
+      </c>
+      <c r="I12" s="3">
+        <v>240</v>
+      </c>
+      <c r="L12" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H13" s="3">
+        <v>220</v>
+      </c>
+      <c r="I13" s="3">
+        <v>240</v>
+      </c>
+      <c r="L13" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>240</v>
+      </c>
+      <c r="I14" s="3">
+        <v>264</v>
+      </c>
+      <c r="L14" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>240</v>
+      </c>
+      <c r="I15" s="3">
+        <v>264</v>
+      </c>
+      <c r="L15" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>240</v>
+      </c>
+      <c r="I16" s="3">
+        <v>264</v>
+      </c>
+      <c r="L16" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>240</v>
+      </c>
+      <c r="I17" s="3">
+        <v>264</v>
+      </c>
+      <c r="L17" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H18" s="3">
+        <v>240</v>
+      </c>
+      <c r="I18" s="3">
+        <v>264</v>
+      </c>
+      <c r="L18" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>240</v>
+      </c>
+      <c r="I19" s="3">
+        <v>264</v>
+      </c>
+      <c r="L19" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>240</v>
+      </c>
+      <c r="I20" s="3">
+        <v>264</v>
+      </c>
+      <c r="L20" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>220</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>120</v>
+      </c>
+      <c r="I21" s="3">
         <v>240</v>
       </c>
-      <c r="J9" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="K21" s="3">
+        <v>48</v>
+      </c>
+      <c r="L21" s="3">
+        <v>85</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>220</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H22" s="3">
+        <v>120</v>
+      </c>
+      <c r="I22" s="3">
         <v>240</v>
       </c>
-      <c r="J10" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="K22" s="3">
+        <v>48</v>
+      </c>
+      <c r="L22" s="3">
+        <v>85</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="3">
-        <v>220</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="H23" s="3">
+        <v>120</v>
+      </c>
+      <c r="I23" s="3">
         <v>240</v>
       </c>
-      <c r="J11" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>220</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="K23" s="3">
+        <v>48</v>
+      </c>
+      <c r="L23" s="3">
+        <v>85</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
+        <v>120</v>
+      </c>
+      <c r="I24" s="3">
         <v>240</v>
       </c>
-      <c r="J12" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="K12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F13" s="3">
-        <v>220</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="K24" s="3">
+        <v>48</v>
+      </c>
+      <c r="L24" s="3">
+        <v>85</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3">
+        <v>120</v>
+      </c>
+      <c r="I25" s="3">
         <v>240</v>
       </c>
-      <c r="J13" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="K25" s="3">
+        <v>48</v>
+      </c>
+      <c r="L25" s="3">
+        <v>85</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3">
+        <v>120</v>
+      </c>
+      <c r="I26" s="3">
         <v>240</v>
       </c>
-      <c r="G14" s="3">
-        <v>264</v>
-      </c>
-      <c r="J14" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>240</v>
-      </c>
-      <c r="G15" s="3">
-        <v>264</v>
-      </c>
-      <c r="J15" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>240</v>
-      </c>
-      <c r="G16" s="3">
-        <v>264</v>
-      </c>
-      <c r="J16" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>240</v>
-      </c>
-      <c r="G17" s="3">
-        <v>264</v>
-      </c>
-      <c r="J17" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F18" s="3">
-        <v>240</v>
-      </c>
-      <c r="G18" s="3">
-        <v>264</v>
-      </c>
-      <c r="J18" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="K18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>240</v>
-      </c>
-      <c r="G19" s="3">
-        <v>264</v>
-      </c>
-      <c r="J19" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>240</v>
-      </c>
-      <c r="G20" s="3">
-        <v>264</v>
-      </c>
-      <c r="J20" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="K20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>120</v>
-      </c>
-      <c r="G21" s="3">
-        <v>240</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K26" s="3">
         <v>48</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L26" s="3">
         <v>85</v>
       </c>
-      <c r="K21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>120</v>
-      </c>
-      <c r="G22" s="3">
-        <v>240</v>
-      </c>
-      <c r="I22" s="3">
-        <v>48</v>
-      </c>
-      <c r="J22" s="3">
-        <v>85</v>
-      </c>
-      <c r="K22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>120</v>
-      </c>
-      <c r="G23" s="3">
-        <v>240</v>
-      </c>
-      <c r="I23" s="3">
-        <v>48</v>
-      </c>
-      <c r="J23" s="3">
-        <v>85</v>
-      </c>
-      <c r="K23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>120</v>
-      </c>
-      <c r="G24" s="3">
-        <v>240</v>
-      </c>
-      <c r="I24" s="3">
-        <v>48</v>
-      </c>
-      <c r="J24" s="3">
-        <v>85</v>
-      </c>
-      <c r="K24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>120</v>
-      </c>
-      <c r="G25" s="3">
-        <v>240</v>
-      </c>
-      <c r="I25" s="3">
-        <v>48</v>
-      </c>
-      <c r="J25" s="3">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="3">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3">
-        <v>120</v>
-      </c>
-      <c r="G26" s="3">
-        <v>240</v>
-      </c>
-      <c r="I26" s="3">
-        <v>48</v>
-      </c>
-      <c r="J26" s="3">
-        <v>85</v>
-      </c>
-      <c r="K26" t="s">
-        <v>146</v>
+      <c r="M26" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{0EAF0DDD-02D0-4652-B1A1-C61A4BDFCC46}"/>
+    <hyperlink ref="M6" r:id="rId2" xr:uid="{685BF51C-CBE4-4BE1-BA9B-6C688F916A64}"/>
+    <hyperlink ref="M7" r:id="rId3" xr:uid="{9BDC9D51-4F56-4D04-9A28-969989EEC1F9}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{67FE5840-8708-4394-99A0-B5CEA82E3B06}"/>
+    <hyperlink ref="M9" r:id="rId5" xr:uid="{DC2C7285-1EF3-44F2-ADD6-75251BD3EBC3}"/>
+    <hyperlink ref="M10" r:id="rId6" xr:uid="{C298899C-9002-48F8-8079-99E0C1D8AE00}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{60C99629-0317-4A71-9F5E-B74179979990}"/>
+    <hyperlink ref="M12" r:id="rId8" xr:uid="{230D2D83-3C4E-4F69-B985-5C33D702411A}"/>
+    <hyperlink ref="M13" r:id="rId9" xr:uid="{A10760CF-144B-41B5-945F-21406BEBD19A}"/>
+    <hyperlink ref="M14" r:id="rId10" xr:uid="{41C0F82F-A257-4F6F-A1AE-E5C03F6C182B}"/>
+    <hyperlink ref="M15" r:id="rId11" xr:uid="{3FEC3434-4C47-402D-BED2-9DC5E1B7E688}"/>
+    <hyperlink ref="M16" r:id="rId12" xr:uid="{F9EC6AE8-7C1A-44D6-9EB6-FD966E66A38E}"/>
+    <hyperlink ref="M17" r:id="rId13" xr:uid="{C13B6AE0-E08F-4CE1-8E75-461DFF309E4D}"/>
+    <hyperlink ref="M18" r:id="rId14" xr:uid="{126383E4-4E7C-4418-AF33-7EF5ACFC8204}"/>
+    <hyperlink ref="M19" r:id="rId15" xr:uid="{F042E179-F84F-43B1-8A7A-0F7C90B04D0F}"/>
+    <hyperlink ref="M20" r:id="rId16" xr:uid="{AA8D6754-A13A-40CB-A2A7-D375C5701C73}"/>
+    <hyperlink ref="M21" r:id="rId17" xr:uid="{7D97221A-84BA-4E3E-B104-E45B710A7776}"/>
+    <hyperlink ref="M22" r:id="rId18" xr:uid="{D16DC1FB-87D4-41EA-8D8F-879FCBCEA853}"/>
+    <hyperlink ref="M23" r:id="rId19" xr:uid="{2BE247DC-7429-4575-948B-5C96BC8EFD12}"/>
+    <hyperlink ref="M24" r:id="rId20" xr:uid="{37E6BDF4-1663-4311-B387-8B388F17BA4D}"/>
+    <hyperlink ref="M25" r:id="rId21" xr:uid="{081684D3-55C2-44EE-B3BB-4F092EC84435}"/>
+    <hyperlink ref="M26" r:id="rId22" xr:uid="{6DD23EAA-9459-440A-A35C-BDEAB1673830}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126EFFA2-F458-48B0-842D-FAC06F6B01E7}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>120</v>
+      </c>
+      <c r="I2" s="3">
+        <v>127</v>
+      </c>
+      <c r="J2" s="3">
+        <v>104</v>
+      </c>
+      <c r="L2" s="3">
+        <v>90</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>220</v>
+      </c>
+      <c r="I3" s="3">
+        <v>230</v>
+      </c>
+      <c r="J3" s="3">
+        <v>198</v>
+      </c>
+      <c r="L3" s="3">
+        <v>90</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>120</v>
+      </c>
+      <c r="I4" s="3">
+        <v>127</v>
+      </c>
+      <c r="J4" s="3">
+        <v>104</v>
+      </c>
+      <c r="L4" s="3">
+        <v>90</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>220</v>
+      </c>
+      <c r="I5" s="3">
+        <v>230</v>
+      </c>
+      <c r="J5" s="3">
+        <v>198</v>
+      </c>
+      <c r="L5" s="3">
+        <v>90</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3">
+        <v>127</v>
+      </c>
+      <c r="J6" s="3">
+        <v>104</v>
+      </c>
+      <c r="L6" s="3">
+        <v>90</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>220</v>
+      </c>
+      <c r="I7" s="3">
+        <v>230</v>
+      </c>
+      <c r="J7" s="3">
+        <v>198</v>
+      </c>
+      <c r="L7" s="3">
+        <v>90</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>220</v>
+      </c>
+      <c r="I8" s="3">
+        <v>230</v>
+      </c>
+      <c r="J8" s="3">
+        <v>198</v>
+      </c>
+      <c r="L8" s="3">
+        <v>90</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>220</v>
+      </c>
+      <c r="I9" s="3">
+        <v>264.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>184</v>
+      </c>
+      <c r="L9" s="3">
+        <v>90</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>220</v>
+      </c>
+      <c r="I10" s="3">
+        <v>264.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>184</v>
+      </c>
+      <c r="K10" s="3">
+        <v>48</v>
+      </c>
+      <c r="L10" s="3">
+        <v>90</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>220</v>
+      </c>
+      <c r="I11" s="3">
+        <v>230</v>
+      </c>
+      <c r="J11" s="3">
+        <v>198</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="3">
+        <v>98</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>220</v>
+      </c>
+      <c r="I12" s="3">
+        <v>230</v>
+      </c>
+      <c r="J12" s="3">
+        <v>198</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="3">
+        <v>98</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>120</v>
+      </c>
+      <c r="I13" s="3">
+        <v>140</v>
+      </c>
+      <c r="J13" s="3">
+        <v>90</v>
+      </c>
+      <c r="L13" s="3">
+        <v>90</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>220</v>
+      </c>
+      <c r="I14" s="3">
+        <v>260</v>
+      </c>
+      <c r="J14" s="3">
+        <v>190</v>
+      </c>
+      <c r="L14" s="3">
+        <v>92</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>230</v>
+      </c>
+      <c r="I15" s="3">
+        <v>264</v>
+      </c>
+      <c r="J15" s="3">
+        <v>180</v>
+      </c>
+      <c r="L15" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>230</v>
+      </c>
+      <c r="I16" s="3">
+        <v>264</v>
+      </c>
+      <c r="J16" s="3">
+        <v>180</v>
+      </c>
+      <c r="L16" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="H17" s="3">
+        <v>230</v>
+      </c>
+      <c r="I17" s="3">
+        <v>264</v>
+      </c>
+      <c r="J17" s="3">
+        <v>180</v>
+      </c>
+      <c r="L17" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>230</v>
+      </c>
+      <c r="I18" s="3">
+        <v>264</v>
+      </c>
+      <c r="J18" s="3">
+        <v>180</v>
+      </c>
+      <c r="L18" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="H19" s="3">
+        <v>230</v>
+      </c>
+      <c r="I19" s="3">
+        <v>264</v>
+      </c>
+      <c r="J19" s="3">
+        <v>180</v>
+      </c>
+      <c r="L19" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{FE70D024-47D6-4372-A4C2-D376F012D432}"/>
+    <hyperlink ref="M3:M8" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM" xr:uid="{2330848D-2AFF-4D7E-B0F7-38DF67E09DCC}"/>
+    <hyperlink ref="M9" r:id="rId3" xr:uid="{C149418A-6616-4BBA-9868-E54EEF4E702F}"/>
+    <hyperlink ref="M10" r:id="rId4" xr:uid="{98346689-2DAF-4F11-B28F-2B13E02A26A1}"/>
+    <hyperlink ref="M11" r:id="rId5" xr:uid="{5BC6B1C5-3C0A-4FA4-AF14-B40330536161}"/>
+    <hyperlink ref="M12" r:id="rId6" xr:uid="{DE2A95AD-8049-4AF7-8CC3-E91690B72AA1}"/>
+    <hyperlink ref="M13" r:id="rId7" xr:uid="{A4C48ED1-1628-4E2D-8590-F5A25D2BF444}"/>
+    <hyperlink ref="M14" r:id="rId8" xr:uid="{435A6142-D5BB-45FF-9E55-7CC12FCBE41B}"/>
+    <hyperlink ref="M15" r:id="rId9" xr:uid="{904F6D95-CB8C-4353-AC33-005800E7E060}"/>
+    <hyperlink ref="M16" r:id="rId10" xr:uid="{BFA1ECAB-8D4F-43AF-B6D5-516D7E26A851}"/>
+    <hyperlink ref="M17" r:id="rId11" xr:uid="{DB3EDF53-600B-4E61-B670-69E612015BFF}"/>
+    <hyperlink ref="M18:M19" r:id="rId12" display="https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm" xr:uid="{0E3190E7-51D4-4ACA-AF17-694AF522502E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3"/>
-    <col min="8" max="8" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="3" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="3"/>
+    <col min="10" max="10" width="96.85546875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3335,665 +4528,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="2">
+        <v>87.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2">
+        <v>96.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2">
+        <v>105</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>80</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>80</v>
+      </c>
+      <c r="I5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="2">
+        <v>133</v>
+      </c>
+      <c r="E6" s="3">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>80</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3">
+        <v>150</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>80</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3">
+        <v>167</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>33.4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>80</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="E9" s="3">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80</v>
+      </c>
+      <c r="I9" s="3">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="3">
+        <v>235</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3">
+        <v>80</v>
+      </c>
+      <c r="I10" s="3">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3">
+        <v>150</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>95</v>
+      </c>
+      <c r="I11" s="3">
+        <v>30</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="F12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="2">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E2" s="6">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="G12" s="3">
+        <v>150</v>
+      </c>
+      <c r="H12" s="3">
+        <v>96</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>120</v>
+      </c>
+      <c r="H13" s="3">
+        <v>90</v>
+      </c>
+      <c r="I13" s="3">
+        <v>30</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="I2" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="J2" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="K2" s="3">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="3">
-        <v>87.7</v>
-      </c>
-      <c r="E3" s="6">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H3" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="I3" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="3">
-        <v>96.4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>19.3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>19.3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>19.3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="3">
-        <v>105</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H5" s="6">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="3">
-        <v>119</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>23.8</v>
-      </c>
-      <c r="I6" s="6">
-        <v>23.8</v>
-      </c>
-      <c r="J6" s="6">
-        <v>23.8</v>
-      </c>
-      <c r="K6" s="3">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="3">
-        <v>133</v>
-      </c>
-      <c r="E7" s="6">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="I7" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="J7" s="6">
-        <v>26.6</v>
-      </c>
-      <c r="K7" s="3">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3">
-        <v>150</v>
-      </c>
-      <c r="E8" s="6">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F14" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3">
         <v>30</v>
       </c>
-      <c r="I8" s="6">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="3">
-        <v>167</v>
-      </c>
-      <c r="E9" s="6">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H9" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="I9" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>80</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="3">
-        <v>202</v>
-      </c>
-      <c r="E10" s="6">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>40.4</v>
-      </c>
-      <c r="I10" s="6">
-        <v>40.4</v>
-      </c>
-      <c r="J10" s="6">
-        <v>40.4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="3">
-        <v>235</v>
-      </c>
-      <c r="E11" s="6">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H11" s="6">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6">
-        <v>47</v>
-      </c>
-      <c r="J11" s="6">
-        <v>47</v>
-      </c>
-      <c r="K11" s="3">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3">
-        <v>150</v>
-      </c>
-      <c r="E12" s="6">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6">
-        <v>12.6</v>
-      </c>
-      <c r="G12" s="6">
-        <v>8.25</v>
-      </c>
-      <c r="H12" s="6">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6">
-        <v>20</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="F13" s="6">
-        <v>14.6</v>
-      </c>
-      <c r="G13" s="6">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6">
-        <v>150</v>
-      </c>
-      <c r="I13" s="6">
-        <v>150</v>
-      </c>
-      <c r="J13" s="3">
-        <v>100</v>
-      </c>
-      <c r="K13" s="3">
-        <v>96</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="J14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
         <v>113</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="G14" s="6">
-        <v>10.9</v>
-      </c>
-      <c r="H14" s="6">
-        <v>120</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="6">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="H15" s="6">
-        <v>900</v>
-      </c>
-      <c r="I15" s="6">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="E15" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>90</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
       </c>
-      <c r="E16" s="6">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6">
-        <v>25.6</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="3">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+      <c r="H16" s="3">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3">
         <v>20</v>
       </c>
-      <c r="H16" s="6">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6">
-        <v>50</v>
-      </c>
-      <c r="J16" s="3">
-        <v>50</v>
-      </c>
-      <c r="K16" s="3">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6">
-        <v>48</v>
-      </c>
-      <c r="F17" s="6">
-        <v>54</v>
-      </c>
-      <c r="G17" s="6">
-        <v>39</v>
-      </c>
-      <c r="H17" s="6">
-        <v>100</v>
-      </c>
-      <c r="I17" s="6">
-        <v>50</v>
-      </c>
-      <c r="J17" s="3">
-        <v>50</v>
-      </c>
-      <c r="K17" s="3">
-        <v>90</v>
-      </c>
-      <c r="L17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L15" r:id="rId1" xr:uid="{180D663E-26A9-4F02-AAEC-3E97046F1379}"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{078E3298-D4FC-46A2-B694-E26AAF71DA56}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{4D6D816B-209A-4844-8B69-F28FD2D8E17E}"/>
+    <hyperlink ref="J9" r:id="rId3" xr:uid="{2904B697-EA5A-4560-AAB4-87F51DBD4A69}"/>
+    <hyperlink ref="J10" r:id="rId4" xr:uid="{35E73802-1D36-47D6-9DA5-0BDA11225BA5}"/>
+    <hyperlink ref="J11" r:id="rId5" xr:uid="{D3D4EEDE-883F-4CB5-93C2-C05DE08ADF0F}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{CB9C8D73-5BEA-46E6-B16B-6B8091285306}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{159FB881-EF50-427C-8105-5570AFAED81C}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{06575CE3-5C7E-4FD1-B6B5-133A0368565C}"/>
+    <hyperlink ref="J15" r:id="rId9" xr:uid="{1BA2A500-0A35-4BD1-9C1C-119E39B16A58}"/>
+    <hyperlink ref="J16" r:id="rId10" xr:uid="{E7ACB55F-17D2-4831-8E44-8E7414053249}"/>
+    <hyperlink ref="J2" r:id="rId11" xr:uid="{2E93594C-DA38-4FBE-81B6-DDD99442722F}"/>
+    <hyperlink ref="J3" r:id="rId12" xr:uid="{6741ACD8-C7B6-48C5-B0BB-57B890795848}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{DBF05A19-BC3F-4943-9492-91B7CC38312D}"/>
+    <hyperlink ref="J5" r:id="rId14" xr:uid="{202480BD-CE69-48B4-9EAF-5A5FF2368174}"/>
+    <hyperlink ref="J6" r:id="rId15" xr:uid="{D36AC9B4-E528-443D-B2A2-253EA8C993DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76C6EF-87A5-4092-90CD-D7A42DC25004}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,7 +5072,8 @@
     <col min="8" max="8" width="20.85546875" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="3"/>
     <col min="11" max="11" width="17" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="94.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4015,31 +5084,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -4047,10 +5116,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3">
         <v>0.8</v>
@@ -4062,13 +5131,13 @@
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G2" s="3">
         <v>0.8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I2" s="5">
         <v>0.76</v>
@@ -4079,16 +5148,16 @@
       <c r="K2" s="3">
         <v>4.2</v>
       </c>
-      <c r="L2" t="s">
-        <v>93</v>
+      <c r="L2" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3">
         <v>2.2999999999999998</v>
@@ -4100,13 +5169,13 @@
         <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I3" s="5">
         <v>2.27</v>
@@ -4117,16 +5186,16 @@
       <c r="K3" s="3">
         <v>15.1</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
+      <c r="L3" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3">
         <v>2.8</v>
@@ -4138,13 +5207,13 @@
         <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I4" s="5">
         <v>2.27</v>
@@ -4155,16 +5224,16 @@
       <c r="K4" s="3">
         <v>15.1</v>
       </c>
-      <c r="L4" t="s">
-        <v>99</v>
+      <c r="L4" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -4176,13 +5245,13 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G5" s="3">
         <v>0.8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I5" s="5">
         <v>2.08</v>
@@ -4193,16 +5262,16 @@
       <c r="K5" s="3">
         <v>12.1</v>
       </c>
-      <c r="L5" t="s">
-        <v>165</v>
+      <c r="L5" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
@@ -4214,13 +5283,13 @@
         <v>120</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I6" s="5">
         <v>2.1280000000000001</v>
@@ -4231,16 +5300,16 @@
       <c r="K6" s="3">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
-        <v>90</v>
+      <c r="L6" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3">
         <v>10.199999999999999</v>
@@ -4252,13 +5321,13 @@
         <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I7" s="5">
         <v>2.7130000000000001</v>
@@ -4270,16 +5339,16 @@
       <c r="K7" s="3">
         <v>45</v>
       </c>
-      <c r="L7" t="s">
-        <v>90</v>
+      <c r="L7" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -4291,13 +5360,13 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I8" s="5">
         <v>2.66</v>
@@ -4309,16 +5378,16 @@
       <c r="K8" s="3">
         <v>45</v>
       </c>
-      <c r="L8" t="s">
-        <v>90</v>
+      <c r="L8" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
@@ -4330,13 +5399,13 @@
         <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G9" s="3">
         <v>0.8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I9" s="5">
         <v>5.0199999999999996</v>
@@ -4347,16 +5416,16 @@
       <c r="K9" s="3">
         <v>76</v>
       </c>
-      <c r="L9" t="s">
-        <v>166</v>
+      <c r="L9" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3">
         <v>1.5</v>
@@ -4368,13 +5437,13 @@
         <v>120</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -4385,30 +5454,41 @@
       <c r="K10" s="3">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
-        <v>100</v>
+      <c r="L10" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{621F65E9-733A-4046-A312-FA822800FBE0}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{76625B61-8651-41EC-A12C-5201CFE494BD}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{376C8DEB-070E-4187-B8A0-5DC204647753}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{58988F26-53B9-4740-8121-9142D668E443}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{38A084FB-701C-483E-A3F5-2F3F40A8FF2C}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{1C1828AC-48F9-455C-96BA-E959F700F758}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{DDC15409-A602-4601-8396-A818A1CED40F}"/>
+    <hyperlink ref="L9" r:id="rId8" xr:uid="{AED1CC44-9B34-4195-82FD-4E1C10ED5261}"/>
+    <hyperlink ref="L10" r:id="rId9" xr:uid="{9D751052-51C7-4492-A149-B80AE77EE3D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA999C76-7F19-4880-B7DA-265118FE94C5}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="95.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4419,19 +5499,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -4439,10 +5519,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2">
         <v>1.75</v>
@@ -4459,16 +5539,16 @@
       <c r="G2" s="2">
         <v>0.8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
+      <c r="H2" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2">
         <v>1.83</v>
@@ -4485,16 +5565,16 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>78</v>
+      <c r="H3" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2">
         <v>1.95</v>
@@ -4511,16 +5591,16 @@
       <c r="G4" s="2">
         <v>1.2</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>79</v>
+      <c r="H4" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2">
         <v>2.1</v>
@@ -4537,16 +5617,16 @@
       <c r="G5" s="2">
         <v>1.5</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>80</v>
+      <c r="H5" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2">
         <v>2.2999999999999998</v>
@@ -4563,16 +5643,16 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>81</v>
+      <c r="H6" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2">
         <v>3.45</v>
@@ -4589,16 +5669,16 @@
       <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>82</v>
+      <c r="H7" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2">
         <v>5.85</v>
@@ -4615,16 +5695,16 @@
       <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>83</v>
+      <c r="H8" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2">
         <v>6.4</v>
@@ -4641,11 +5721,430 @@
       <c r="G9" s="2">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>84</v>
+      <c r="H9" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{609A1150-5030-4624-9641-3EB610724E2A}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{7FF5B88B-FF3C-4DB4-9DCC-5B96D8784190}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{49D7F70D-D5E4-4189-99DA-645CEA575071}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{CF8381B8-9189-4049-9EF4-795C7F47CA22}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{CBE84E49-8A42-4F79-88DA-82DB77CB5D66}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{9DA3D84F-613D-458B-A73F-17937D46D23A}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{5A6D0CC9-9C63-4024-AD36-59B8F5B57548}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{7F6EF28E-8FC8-4EB9-B541-2F28DFFAB19B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E26618-CC37-4259-9107-9A67A124EBED}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="94.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F2">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0.44</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.44</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="F7">
+        <v>98.3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>98.6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>98.5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>98.6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12">
+        <v>125</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>95</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13">
+        <v>98</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>98</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>3.2</v>
+      </c>
+      <c r="F15">
+        <v>96</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>96</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3A98F61D-8E57-4484-B485-C166C741F8D4}"/>
+    <hyperlink ref="G3:G5" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q" xr:uid="{BF83740C-2805-42EF-8AC1-673A33E4FBD3}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{ABCAE16B-4C80-4E0E-941F-63752AE1DDE8}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{C80A928B-8A29-408E-8229-63FA7322D23A}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{C3DBF839-8179-4A42-A49F-82E7E3DF339F}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{6B6F0475-AD41-4235-BC47-8EAE02D81A57}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{34BE17A2-14DB-4470-B758-FFBF016A9D64}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{1FCEB8DD-12AA-46FC-8B43-7A49A94648D4}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{2786A8C8-27B9-4123-A9A7-7EBDAD3CCA6E}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{C3311F9D-3824-4AAB-93C3-2EB070746598}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{BD30B4A2-FB99-4945-8B2F-4AD9F1680FFA}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{BE4FC19A-B5A0-473E-A532-2AE948E4E469}"/>
+    <hyperlink ref="G16" r:id="rId13" xr:uid="{183FD10F-FB7E-4842-9A38-3A0EE1DDD894}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C3 C6" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1288" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844B5086-362C-4B6B-ADB7-E559147200A3}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2D5F07-D550-4069-A1F7-C4D9E1276449}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="258">
   <si>
     <t>celltype</t>
   </si>
@@ -200,12 +200,6 @@
     <t>MultiPlus-12/2000/80</t>
   </si>
   <si>
-    <t>Cargador</t>
-  </si>
-  <si>
-    <t>load_backup</t>
-  </si>
-  <si>
     <t>phases</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>Vac_max (V)</t>
   </si>
   <si>
-    <t>Vdc_nom (V)</t>
-  </si>
-  <si>
     <t>MultiPlus-24/2000/50</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>On-Grid</t>
   </si>
   <si>
-    <t>Conexión a Red</t>
-  </si>
-  <si>
     <t>PRIMO-3.8-1</t>
   </si>
   <si>
@@ -485,12 +473,6 @@
     <t>MIN-6000TL-X</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>https://1drv.ms/b/c/952130943b0dd709/EaxE3ydDhx5Pr1FbXV5dyx4B7ysq4KducrwLe-LnsOGSaw?e=a8X1aC</t>
   </si>
   <si>
@@ -611,9 +593,6 @@
     <t>Trifásico</t>
   </si>
   <si>
-    <t>Vac_min (V)</t>
-  </si>
-  <si>
     <t>Pac_max (kW)</t>
   </si>
   <si>
@@ -641,9 +620,6 @@
     <t>grid_type</t>
   </si>
   <si>
-    <t>inv_type</t>
-  </si>
-  <si>
     <t>12-TSG-170</t>
   </si>
   <si>
@@ -837,6 +813,9 @@
   </si>
   <si>
     <t>efficiency</t>
+  </si>
+  <si>
+    <t>Vbb_nom (V)</t>
   </si>
 </sst>
 </file>
@@ -1289,34 +1268,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -2682,11 +2661,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD4EA4-558D-4153-886C-368655763902}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,18 +2673,16 @@
     <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="96.42578125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="96.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2713,163 +2690,127 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3">
+        <v>127</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>120</v>
+      </c>
+      <c r="G4" s="3">
+        <v>127</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="3">
-        <v>120</v>
-      </c>
-      <c r="I2" s="3">
-        <v>127</v>
-      </c>
-      <c r="J2" s="3">
-        <v>104</v>
-      </c>
-      <c r="K2" s="3">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>120</v>
-      </c>
-      <c r="I3" s="3">
-        <v>127</v>
-      </c>
-      <c r="J3" s="3">
-        <v>104</v>
-      </c>
-      <c r="K3" s="3">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3">
-        <v>127</v>
-      </c>
-      <c r="J4" s="3">
-        <v>104</v>
-      </c>
-      <c r="K4" s="3">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -2877,823 +2818,691 @@
         <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>120</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="H5" s="3">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3">
-        <v>127</v>
-      </c>
-      <c r="K5" s="3">
-        <v>12</v>
-      </c>
-      <c r="L5" s="3">
         <v>92</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="H6" s="3">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
-        <v>127</v>
-      </c>
-      <c r="K6" s="3">
-        <v>24</v>
-      </c>
-      <c r="L6" s="3">
         <v>94</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>120</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="H7" s="3">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3">
-        <v>127</v>
-      </c>
-      <c r="K7" s="3">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3">
         <v>93</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>120</v>
+      </c>
+      <c r="G8" s="3">
+        <v>127</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>94</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>220</v>
+      </c>
+      <c r="G9" s="3">
+        <v>240</v>
+      </c>
+      <c r="I9" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>220</v>
+      </c>
+      <c r="G10" s="3">
+        <v>240</v>
+      </c>
+      <c r="I10" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>220</v>
+      </c>
+      <c r="G11" s="3">
+        <v>240</v>
+      </c>
+      <c r="I11" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>220</v>
+      </c>
+      <c r="G12" s="3">
+        <v>240</v>
+      </c>
+      <c r="I12" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F13" s="3">
+        <v>220</v>
+      </c>
+      <c r="G13" s="3">
+        <v>240</v>
+      </c>
+      <c r="I13" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>240</v>
+      </c>
+      <c r="G14" s="3">
+        <v>264</v>
+      </c>
+      <c r="I14" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>240</v>
+      </c>
+      <c r="G15" s="3">
+        <v>264</v>
+      </c>
+      <c r="I15" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>240</v>
+      </c>
+      <c r="G16" s="3">
+        <v>264</v>
+      </c>
+      <c r="I16" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>240</v>
+      </c>
+      <c r="G17" s="3">
+        <v>264</v>
+      </c>
+      <c r="I17" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3">
+        <v>264</v>
+      </c>
+      <c r="I18" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>240</v>
+      </c>
+      <c r="G19" s="3">
+        <v>264</v>
+      </c>
+      <c r="I19" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>240</v>
+      </c>
+      <c r="G20" s="3">
+        <v>264</v>
+      </c>
+      <c r="I20" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>120</v>
+      </c>
+      <c r="G21" s="3">
+        <v>240</v>
+      </c>
+      <c r="H21" s="3">
+        <v>48</v>
+      </c>
+      <c r="I21" s="3">
+        <v>85</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>120</v>
+      </c>
+      <c r="G22" s="3">
+        <v>240</v>
+      </c>
+      <c r="H22" s="3">
+        <v>48</v>
+      </c>
+      <c r="I22" s="3">
+        <v>85</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
         <v>120</v>
       </c>
-      <c r="I8" s="3">
-        <v>127</v>
-      </c>
-      <c r="K8" s="3">
-        <v>24</v>
-      </c>
-      <c r="L8" s="3">
-        <v>94</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G23" s="3">
+        <v>240</v>
+      </c>
+      <c r="H23" s="3">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3">
+        <v>85</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H9" s="3">
-        <v>220</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>120</v>
+      </c>
+      <c r="G24" s="3">
         <v>240</v>
       </c>
-      <c r="L9" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="H24" s="3">
+        <v>48</v>
+      </c>
+      <c r="I24" s="3">
+        <v>85</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>220</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>120</v>
+      </c>
+      <c r="G25" s="3">
         <v>240</v>
       </c>
-      <c r="L10" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>220</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H25" s="3">
+        <v>48</v>
+      </c>
+      <c r="I25" s="3">
+        <v>85</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3">
+        <v>120</v>
+      </c>
+      <c r="G26" s="3">
         <v>240</v>
       </c>
-      <c r="L11" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>220</v>
-      </c>
-      <c r="I12" s="3">
-        <v>240</v>
-      </c>
-      <c r="L12" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H13" s="3">
-        <v>220</v>
-      </c>
-      <c r="I13" s="3">
-        <v>240</v>
-      </c>
-      <c r="L13" s="3">
-        <v>97.9</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>240</v>
-      </c>
-      <c r="I14" s="3">
-        <v>264</v>
-      </c>
-      <c r="L14" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>240</v>
-      </c>
-      <c r="I15" s="3">
-        <v>264</v>
-      </c>
-      <c r="L15" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>240</v>
-      </c>
-      <c r="I16" s="3">
-        <v>264</v>
-      </c>
-      <c r="L16" s="3">
-        <v>98.2</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>240</v>
-      </c>
-      <c r="I17" s="3">
-        <v>264</v>
-      </c>
-      <c r="L17" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H18" s="3">
-        <v>240</v>
-      </c>
-      <c r="I18" s="3">
-        <v>264</v>
-      </c>
-      <c r="L18" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>240</v>
-      </c>
-      <c r="I19" s="3">
-        <v>264</v>
-      </c>
-      <c r="L19" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>240</v>
-      </c>
-      <c r="I20" s="3">
-        <v>264</v>
-      </c>
-      <c r="L20" s="3">
-        <v>98.4</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="H26" s="3">
+        <v>48</v>
+      </c>
+      <c r="I26" s="3">
+        <v>85</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>120</v>
-      </c>
-      <c r="I21" s="3">
-        <v>240</v>
-      </c>
-      <c r="K21" s="3">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3">
-        <v>85</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>120</v>
-      </c>
-      <c r="I22" s="3">
-        <v>240</v>
-      </c>
-      <c r="K22" s="3">
-        <v>48</v>
-      </c>
-      <c r="L22" s="3">
-        <v>85</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="3">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3">
-        <v>120</v>
-      </c>
-      <c r="I23" s="3">
-        <v>240</v>
-      </c>
-      <c r="K23" s="3">
-        <v>48</v>
-      </c>
-      <c r="L23" s="3">
-        <v>85</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24" s="3">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
-        <v>120</v>
-      </c>
-      <c r="I24" s="3">
-        <v>240</v>
-      </c>
-      <c r="K24" s="3">
-        <v>48</v>
-      </c>
-      <c r="L24" s="3">
-        <v>85</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="3">
-        <v>10</v>
-      </c>
-      <c r="H25" s="3">
-        <v>120</v>
-      </c>
-      <c r="I25" s="3">
-        <v>240</v>
-      </c>
-      <c r="K25" s="3">
-        <v>48</v>
-      </c>
-      <c r="L25" s="3">
-        <v>85</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="3">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3">
-        <v>120</v>
-      </c>
-      <c r="I26" s="3">
-        <v>240</v>
-      </c>
-      <c r="K26" s="3">
-        <v>48</v>
-      </c>
-      <c r="L26" s="3">
-        <v>85</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{0EAF0DDD-02D0-4652-B1A1-C61A4BDFCC46}"/>
-    <hyperlink ref="M6" r:id="rId2" xr:uid="{685BF51C-CBE4-4BE1-BA9B-6C688F916A64}"/>
-    <hyperlink ref="M7" r:id="rId3" xr:uid="{9BDC9D51-4F56-4D04-9A28-969989EEC1F9}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{67FE5840-8708-4394-99A0-B5CEA82E3B06}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{DC2C7285-1EF3-44F2-ADD6-75251BD3EBC3}"/>
-    <hyperlink ref="M10" r:id="rId6" xr:uid="{C298899C-9002-48F8-8079-99E0C1D8AE00}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{60C99629-0317-4A71-9F5E-B74179979990}"/>
-    <hyperlink ref="M12" r:id="rId8" xr:uid="{230D2D83-3C4E-4F69-B985-5C33D702411A}"/>
-    <hyperlink ref="M13" r:id="rId9" xr:uid="{A10760CF-144B-41B5-945F-21406BEBD19A}"/>
-    <hyperlink ref="M14" r:id="rId10" xr:uid="{41C0F82F-A257-4F6F-A1AE-E5C03F6C182B}"/>
-    <hyperlink ref="M15" r:id="rId11" xr:uid="{3FEC3434-4C47-402D-BED2-9DC5E1B7E688}"/>
-    <hyperlink ref="M16" r:id="rId12" xr:uid="{F9EC6AE8-7C1A-44D6-9EB6-FD966E66A38E}"/>
-    <hyperlink ref="M17" r:id="rId13" xr:uid="{C13B6AE0-E08F-4CE1-8E75-461DFF309E4D}"/>
-    <hyperlink ref="M18" r:id="rId14" xr:uid="{126383E4-4E7C-4418-AF33-7EF5ACFC8204}"/>
-    <hyperlink ref="M19" r:id="rId15" xr:uid="{F042E179-F84F-43B1-8A7A-0F7C90B04D0F}"/>
-    <hyperlink ref="M20" r:id="rId16" xr:uid="{AA8D6754-A13A-40CB-A2A7-D375C5701C73}"/>
-    <hyperlink ref="M21" r:id="rId17" xr:uid="{7D97221A-84BA-4E3E-B104-E45B710A7776}"/>
-    <hyperlink ref="M22" r:id="rId18" xr:uid="{D16DC1FB-87D4-41EA-8D8F-879FCBCEA853}"/>
-    <hyperlink ref="M23" r:id="rId19" xr:uid="{2BE247DC-7429-4575-948B-5C96BC8EFD12}"/>
-    <hyperlink ref="M24" r:id="rId20" xr:uid="{37E6BDF4-1663-4311-B387-8B388F17BA4D}"/>
-    <hyperlink ref="M25" r:id="rId21" xr:uid="{081684D3-55C2-44EE-B3BB-4F092EC84435}"/>
-    <hyperlink ref="M26" r:id="rId22" xr:uid="{6DD23EAA-9459-440A-A35C-BDEAB1673830}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{0EAF0DDD-02D0-4652-B1A1-C61A4BDFCC46}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{685BF51C-CBE4-4BE1-BA9B-6C688F916A64}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{9BDC9D51-4F56-4D04-9A28-969989EEC1F9}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{67FE5840-8708-4394-99A0-B5CEA82E3B06}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{DC2C7285-1EF3-44F2-ADD6-75251BD3EBC3}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{C298899C-9002-48F8-8079-99E0C1D8AE00}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{60C99629-0317-4A71-9F5E-B74179979990}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{230D2D83-3C4E-4F69-B985-5C33D702411A}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{A10760CF-144B-41B5-945F-21406BEBD19A}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{41C0F82F-A257-4F6F-A1AE-E5C03F6C182B}"/>
+    <hyperlink ref="J15" r:id="rId11" xr:uid="{3FEC3434-4C47-402D-BED2-9DC5E1B7E688}"/>
+    <hyperlink ref="J16" r:id="rId12" xr:uid="{F9EC6AE8-7C1A-44D6-9EB6-FD966E66A38E}"/>
+    <hyperlink ref="J17" r:id="rId13" xr:uid="{C13B6AE0-E08F-4CE1-8E75-461DFF309E4D}"/>
+    <hyperlink ref="J18" r:id="rId14" xr:uid="{126383E4-4E7C-4418-AF33-7EF5ACFC8204}"/>
+    <hyperlink ref="J19" r:id="rId15" xr:uid="{F042E179-F84F-43B1-8A7A-0F7C90B04D0F}"/>
+    <hyperlink ref="J20" r:id="rId16" xr:uid="{AA8D6754-A13A-40CB-A2A7-D375C5701C73}"/>
+    <hyperlink ref="J21" r:id="rId17" xr:uid="{7D97221A-84BA-4E3E-B104-E45B710A7776}"/>
+    <hyperlink ref="J22" r:id="rId18" xr:uid="{D16DC1FB-87D4-41EA-8D8F-879FCBCEA853}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{2BE247DC-7429-4575-948B-5C96BC8EFD12}"/>
+    <hyperlink ref="J24" r:id="rId20" xr:uid="{37E6BDF4-1663-4311-B387-8B388F17BA4D}"/>
+    <hyperlink ref="J25" r:id="rId21" xr:uid="{081684D3-55C2-44EE-B3BB-4F092EC84435}"/>
+    <hyperlink ref="J26" r:id="rId22" xr:uid="{6DD23EAA-9459-440A-A35C-BDEAB1673830}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3701,11 +3510,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126EFFA2-F458-48B0-842D-FAC06F6B01E7}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,18 +3522,16 @@
     <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="96.42578125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="96.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3732,770 +3539,599 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3">
+        <v>127</v>
+      </c>
+      <c r="I2" s="3">
+        <v>90</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>220</v>
+      </c>
+      <c r="G3" s="3">
+        <v>230</v>
+      </c>
+      <c r="I3" s="3">
+        <v>90</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>120</v>
+      </c>
+      <c r="G4" s="3">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3">
+        <v>90</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>220</v>
+      </c>
+      <c r="G5" s="3">
+        <v>230</v>
+      </c>
+      <c r="I5" s="3">
+        <v>90</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3">
+        <v>127</v>
+      </c>
+      <c r="I6" s="3">
+        <v>90</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>220</v>
+      </c>
+      <c r="G7" s="3">
+        <v>230</v>
+      </c>
+      <c r="I7" s="3">
+        <v>90</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>220</v>
+      </c>
+      <c r="G8" s="3">
+        <v>230</v>
+      </c>
+      <c r="I8" s="3">
+        <v>90</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>220</v>
+      </c>
+      <c r="G9" s="3">
+        <v>264.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>90</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>220</v>
+      </c>
+      <c r="G10" s="3">
+        <v>264.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3">
+        <v>90</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>220</v>
+      </c>
+      <c r="G11" s="3">
+        <v>230</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="I11" s="3">
+        <v>98</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>220</v>
+      </c>
+      <c r="G12" s="3">
+        <v>230</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="3">
+        <v>98</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>120</v>
       </c>
-      <c r="I2" s="3">
-        <v>127</v>
-      </c>
-      <c r="J2" s="3">
-        <v>104</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="G13" s="3">
+        <v>140</v>
+      </c>
+      <c r="I13" s="3">
         <v>90</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
         <v>220</v>
       </c>
-      <c r="I3" s="3">
+      <c r="G14" s="3">
+        <v>260</v>
+      </c>
+      <c r="I14" s="3">
+        <v>92</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="3">
         <v>230</v>
       </c>
-      <c r="J3" s="3">
-        <v>198</v>
-      </c>
-      <c r="L3" s="3">
-        <v>90</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3">
-        <v>127</v>
-      </c>
-      <c r="J4" s="3">
-        <v>104</v>
-      </c>
-      <c r="L4" s="3">
-        <v>90</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="3">
-        <v>220</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G15" s="3">
+        <v>264</v>
+      </c>
+      <c r="I15" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="F16" s="3">
         <v>230</v>
       </c>
-      <c r="J5" s="3">
-        <v>198</v>
-      </c>
-      <c r="L5" s="3">
-        <v>90</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3">
-        <v>127</v>
-      </c>
-      <c r="J6" s="3">
-        <v>104</v>
-      </c>
-      <c r="L6" s="3">
-        <v>90</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>220</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G16" s="3">
+        <v>264</v>
+      </c>
+      <c r="I16" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="F17" s="3">
         <v>230</v>
       </c>
-      <c r="J7" s="3">
-        <v>198</v>
-      </c>
-      <c r="L7" s="3">
-        <v>90</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>220</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G17" s="3">
+        <v>264</v>
+      </c>
+      <c r="I17" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>230</v>
       </c>
-      <c r="J8" s="3">
-        <v>198</v>
-      </c>
-      <c r="L8" s="3">
-        <v>90</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="G18" s="3">
+        <v>264</v>
+      </c>
+      <c r="I18" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>220</v>
-      </c>
-      <c r="I9" s="3">
-        <v>264.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>184</v>
-      </c>
-      <c r="L9" s="3">
-        <v>90</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6</v>
-      </c>
-      <c r="H10" s="3">
-        <v>220</v>
-      </c>
-      <c r="I10" s="3">
-        <v>264.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>184</v>
-      </c>
-      <c r="K10" s="3">
-        <v>48</v>
-      </c>
-      <c r="L10" s="3">
-        <v>90</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>220</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="F19" s="3">
         <v>230</v>
       </c>
-      <c r="J11" s="3">
-        <v>198</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="3">
-        <v>98</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <v>220</v>
-      </c>
-      <c r="I12" s="3">
-        <v>230</v>
-      </c>
-      <c r="J12" s="3">
-        <v>198</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="3">
-        <v>98</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>120</v>
-      </c>
-      <c r="I13" s="3">
-        <v>140</v>
-      </c>
-      <c r="J13" s="3">
-        <v>90</v>
-      </c>
-      <c r="L13" s="3">
-        <v>90</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="G19" s="3">
+        <v>264</v>
+      </c>
+      <c r="I19" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>220</v>
-      </c>
-      <c r="I14" s="3">
-        <v>260</v>
-      </c>
-      <c r="J14" s="3">
-        <v>190</v>
-      </c>
-      <c r="L14" s="3">
-        <v>92</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H15" s="3">
-        <v>230</v>
-      </c>
-      <c r="I15" s="3">
-        <v>264</v>
-      </c>
-      <c r="J15" s="3">
-        <v>180</v>
-      </c>
-      <c r="L15" s="3">
-        <v>96.3</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>230</v>
-      </c>
-      <c r="I16" s="3">
-        <v>264</v>
-      </c>
-      <c r="J16" s="3">
-        <v>180</v>
-      </c>
-      <c r="L16" s="3">
-        <v>96.3</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="H17" s="3">
-        <v>230</v>
-      </c>
-      <c r="I17" s="3">
-        <v>264</v>
-      </c>
-      <c r="J17" s="3">
-        <v>180</v>
-      </c>
-      <c r="L17" s="3">
-        <v>96.8</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>230</v>
-      </c>
-      <c r="I18" s="3">
-        <v>264</v>
-      </c>
-      <c r="J18" s="3">
-        <v>180</v>
-      </c>
-      <c r="L18" s="3">
-        <v>96.8</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4.67</v>
-      </c>
-      <c r="H19" s="3">
-        <v>230</v>
-      </c>
-      <c r="I19" s="3">
-        <v>264</v>
-      </c>
-      <c r="J19" s="3">
-        <v>180</v>
-      </c>
-      <c r="L19" s="3">
-        <v>96.8</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M26" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{FE70D024-47D6-4372-A4C2-D376F012D432}"/>
-    <hyperlink ref="M3:M8" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM" xr:uid="{2330848D-2AFF-4D7E-B0F7-38DF67E09DCC}"/>
-    <hyperlink ref="M9" r:id="rId3" xr:uid="{C149418A-6616-4BBA-9868-E54EEF4E702F}"/>
-    <hyperlink ref="M10" r:id="rId4" xr:uid="{98346689-2DAF-4F11-B28F-2B13E02A26A1}"/>
-    <hyperlink ref="M11" r:id="rId5" xr:uid="{5BC6B1C5-3C0A-4FA4-AF14-B40330536161}"/>
-    <hyperlink ref="M12" r:id="rId6" xr:uid="{DE2A95AD-8049-4AF7-8CC3-E91690B72AA1}"/>
-    <hyperlink ref="M13" r:id="rId7" xr:uid="{A4C48ED1-1628-4E2D-8590-F5A25D2BF444}"/>
-    <hyperlink ref="M14" r:id="rId8" xr:uid="{435A6142-D5BB-45FF-9E55-7CC12FCBE41B}"/>
-    <hyperlink ref="M15" r:id="rId9" xr:uid="{904F6D95-CB8C-4353-AC33-005800E7E060}"/>
-    <hyperlink ref="M16" r:id="rId10" xr:uid="{BFA1ECAB-8D4F-43AF-B6D5-516D7E26A851}"/>
-    <hyperlink ref="M17" r:id="rId11" xr:uid="{DB3EDF53-600B-4E61-B670-69E612015BFF}"/>
-    <hyperlink ref="M18:M19" r:id="rId12" display="https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm" xr:uid="{0E3190E7-51D4-4ACA-AF17-694AF522502E}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{FE70D024-47D6-4372-A4C2-D376F012D432}"/>
+    <hyperlink ref="J3:J8" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM" xr:uid="{2330848D-2AFF-4D7E-B0F7-38DF67E09DCC}"/>
+    <hyperlink ref="J9" r:id="rId3" xr:uid="{C149418A-6616-4BBA-9868-E54EEF4E702F}"/>
+    <hyperlink ref="J10" r:id="rId4" xr:uid="{98346689-2DAF-4F11-B28F-2B13E02A26A1}"/>
+    <hyperlink ref="J11" r:id="rId5" xr:uid="{5BC6B1C5-3C0A-4FA4-AF14-B40330536161}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{DE2A95AD-8049-4AF7-8CC3-E91690B72AA1}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{A4C48ED1-1628-4E2D-8590-F5A25D2BF444}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{435A6142-D5BB-45FF-9E55-7CC12FCBE41B}"/>
+    <hyperlink ref="J15" r:id="rId9" xr:uid="{904F6D95-CB8C-4353-AC33-005800E7E060}"/>
+    <hyperlink ref="J16" r:id="rId10" xr:uid="{BFA1ECAB-8D4F-43AF-B6D5-516D7E26A851}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{DB3EDF53-600B-4E61-B670-69E612015BFF}"/>
+    <hyperlink ref="J18:J19" r:id="rId12" display="https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm" xr:uid="{0E3190E7-51D4-4ACA-AF17-694AF522502E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4505,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4528,25 +4164,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>11</v>
@@ -4554,13 +4190,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>87.7</v>
@@ -4581,18 +4217,18 @@
         <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2">
         <v>96.4</v>
@@ -4613,18 +4249,18 @@
         <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2">
         <v>105</v>
@@ -4645,18 +4281,18 @@
         <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2">
         <v>119</v>
@@ -4677,18 +4313,18 @@
         <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2">
         <v>133</v>
@@ -4709,18 +4345,18 @@
         <v>20</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -4741,18 +4377,18 @@
         <v>20</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3">
         <v>167</v>
@@ -4773,18 +4409,18 @@
         <v>20</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3">
         <v>202</v>
@@ -4805,18 +4441,18 @@
         <v>20</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3">
         <v>235</v>
@@ -4837,18 +4473,18 @@
         <v>20</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="3">
         <v>150</v>
@@ -4869,18 +4505,18 @@
         <v>30</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
@@ -4901,18 +4537,18 @@
         <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
@@ -4933,18 +4569,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
@@ -4965,18 +4601,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -4997,18 +4633,18 @@
         <v>20</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
@@ -5029,7 +4665,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5084,31 +4720,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -5116,10 +4752,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="3">
         <v>0.8</v>
@@ -5131,13 +4767,13 @@
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G2" s="3">
         <v>0.8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I2" s="5">
         <v>0.76</v>
@@ -5149,15 +4785,15 @@
         <v>4.2</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3">
         <v>2.2999999999999998</v>
@@ -5169,13 +4805,13 @@
         <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3" s="5">
         <v>2.27</v>
@@ -5187,15 +4823,15 @@
         <v>15.1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3">
         <v>2.8</v>
@@ -5207,13 +4843,13 @@
         <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I4" s="5">
         <v>2.27</v>
@@ -5225,15 +4861,15 @@
         <v>15.1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -5245,13 +4881,13 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G5" s="3">
         <v>0.8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I5" s="5">
         <v>2.08</v>
@@ -5263,15 +4899,15 @@
         <v>12.1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
@@ -5283,13 +4919,13 @@
         <v>120</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I6" s="5">
         <v>2.1280000000000001</v>
@@ -5301,15 +4937,15 @@
         <v>45</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3">
         <v>10.199999999999999</v>
@@ -5321,13 +4957,13 @@
         <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="5">
         <v>2.7130000000000001</v>
@@ -5340,15 +4976,15 @@
         <v>45</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -5360,13 +4996,13 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I8" s="5">
         <v>2.66</v>
@@ -5379,15 +5015,15 @@
         <v>45</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
@@ -5399,13 +5035,13 @@
         <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G9" s="3">
         <v>0.8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I9" s="5">
         <v>5.0199999999999996</v>
@@ -5417,15 +5053,15 @@
         <v>76</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3">
         <v>1.5</v>
@@ -5437,13 +5073,13 @@
         <v>120</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -5455,7 +5091,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5499,19 +5135,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -5519,10 +5155,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2">
         <v>1.75</v>
@@ -5540,15 +5176,15 @@
         <v>0.8</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2">
         <v>1.83</v>
@@ -5566,15 +5202,15 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2">
         <v>1.95</v>
@@ -5592,15 +5228,15 @@
         <v>1.2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2">
         <v>2.1</v>
@@ -5618,15 +5254,15 @@
         <v>1.5</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2">
         <v>2.2999999999999998</v>
@@ -5644,15 +5280,15 @@
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2">
         <v>3.45</v>
@@ -5670,15 +5306,15 @@
         <v>3</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2">
         <v>5.85</v>
@@ -5696,15 +5332,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2">
         <v>6.4</v>
@@ -5722,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5765,16 +5401,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5785,10 +5421,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -5800,7 +5436,7 @@
         <v>98</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5808,10 +5444,10 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -5823,7 +5459,7 @@
         <v>98</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,10 +5467,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -5846,7 +5482,7 @@
         <v>98</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,10 +5490,10 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -5869,18 +5505,18 @@
         <v>98</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -5892,18 +5528,18 @@
         <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -5915,18 +5551,18 @@
         <v>98.3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -5938,18 +5574,18 @@
         <v>98.6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -5961,18 +5597,18 @@
         <v>98.5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
         <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" t="s">
-        <v>223</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -5984,18 +5620,18 @@
         <v>98.6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>125</v>
@@ -6007,18 +5643,18 @@
         <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D12">
         <v>125</v>
@@ -6030,18 +5666,18 @@
         <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -6053,18 +5689,18 @@
         <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>63</v>
@@ -6076,18 +5712,18 @@
         <v>98</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -6099,18 +5735,18 @@
         <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>80</v>
@@ -6122,7 +5758,7 @@
         <v>96</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2D5F07-D550-4069-A1F7-C4D9E1276449}"/>
+  <xr:revisionPtr revIDLastSave="1298" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198F0DD6-B499-4014-8DC2-333D1DCCF19F}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>SEC</t>
   </si>
   <si>
-    <t>DOD</t>
-  </si>
-  <si>
     <t>C (Ah)</t>
   </si>
   <si>
@@ -812,10 +809,13 @@
     <t>bat_type</t>
   </si>
   <si>
-    <t>efficiency</t>
-  </si>
-  <si>
     <t>Vbb_nom (V)</t>
+  </si>
+  <si>
+    <t>DOD (%)</t>
+  </si>
+  <si>
+    <t>efficiency (%)</t>
   </si>
 </sst>
 </file>
@@ -1268,34 +1268,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>11</v>
@@ -2690,13 +2690,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>53</v>
@@ -2705,10 +2705,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>11</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3">
         <v>0.6</v>
@@ -2743,21 +2743,21 @@
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -2775,21 +2775,21 @@
         <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -2807,7 +2807,7 @@
         <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -2885,7 +2885,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -2917,7 +2917,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2949,7 +2949,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3">
         <v>3.8</v>
@@ -2964,7 +2964,7 @@
         <v>97.9</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -2993,7 +2993,7 @@
         <v>97.9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -3022,7 +3022,7 @@
         <v>97.9</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3">
         <v>7.6</v>
@@ -3051,7 +3051,7 @@
         <v>97.9</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3">
         <v>8.1999999999999993</v>
@@ -3080,21 +3080,21 @@
         <v>97.9</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3">
         <v>2.5</v>
@@ -3109,21 +3109,21 @@
         <v>98.2</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -3138,21 +3138,21 @@
         <v>98.2</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="3">
         <v>3.6</v>
@@ -3167,21 +3167,21 @@
         <v>98.2</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="3">
         <v>4.2</v>
@@ -3196,21 +3196,21 @@
         <v>98.4</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="3">
         <v>4.5999999999999996</v>
@@ -3225,21 +3225,21 @@
         <v>98.4</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -3254,21 +3254,21 @@
         <v>98.4</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
@@ -3283,21 +3283,21 @@
         <v>98.4</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -3315,21 +3315,21 @@
         <v>85</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -3347,21 +3347,21 @@
         <v>85</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
@@ -3379,21 +3379,21 @@
         <v>85</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3">
         <v>8</v>
@@ -3411,21 +3411,21 @@
         <v>85</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3">
         <v>10</v>
@@ -3443,21 +3443,21 @@
         <v>85</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="3">
         <v>12</v>
@@ -3475,7 +3475,7 @@
         <v>85</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126EFFA2-F458-48B0-842D-FAC06F6B01E7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3539,13 +3539,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>53</v>
@@ -3554,10 +3554,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>11</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
         <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3">
         <v>0.5</v>
@@ -3589,21 +3589,21 @@
         <v>90</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3">
         <v>0.5</v>
@@ -3618,21 +3618,21 @@
         <v>90</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3">
         <v>0.6</v>
@@ -3647,21 +3647,21 @@
         <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3">
         <v>0.6</v>
@@ -3676,21 +3676,21 @@
         <v>90</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -3705,21 +3705,21 @@
         <v>90</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -3734,21 +3734,21 @@
         <v>90</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -3763,21 +3763,21 @@
         <v>90</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
@@ -3792,21 +3792,21 @@
         <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
@@ -3824,7 +3824,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,13 +3832,13 @@
         <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -3850,13 +3850,13 @@
         <v>230</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I11" s="3">
         <v>98</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3864,13 +3864,13 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -3882,27 +3882,27 @@
         <v>230</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" s="3">
         <v>98</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -3917,21 +3917,21 @@
         <v>90</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -3946,21 +3946,21 @@
         <v>92</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
         <v>245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>246</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="3">
         <v>2.2000000000000002</v>
@@ -3975,21 +3975,21 @@
         <v>96.3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="3">
         <v>2.75</v>
@@ -4004,21 +4004,21 @@
         <v>96.3</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="3">
         <v>3.33</v>
@@ -4033,21 +4033,21 @@
         <v>96.8</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -4062,21 +4062,21 @@
         <v>96.8</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="3">
         <v>4.67</v>
@@ -4091,7 +4091,7 @@
         <v>96.8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4141,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,25 +4164,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>11</v>
@@ -4193,10 +4193,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2">
         <v>87.7</v>
@@ -4217,7 +4217,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4225,10 +4225,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2">
         <v>96.4</v>
@@ -4249,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4257,10 +4257,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2">
         <v>105</v>
@@ -4281,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4289,10 +4289,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>119</v>
@@ -4313,7 +4313,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4321,10 +4321,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2">
         <v>133</v>
@@ -4345,7 +4345,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -4377,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4385,10 +4385,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3">
         <v>167</v>
@@ -4409,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4417,10 +4417,10 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="3">
         <v>202</v>
@@ -4441,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4449,10 +4449,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3">
         <v>235</v>
@@ -4473,18 +4473,18 @@
         <v>20</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3">
         <v>150</v>
@@ -4505,18 +4505,18 @@
         <v>30</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
@@ -4537,18 +4537,18 @@
         <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
@@ -4569,18 +4569,18 @@
         <v>30</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
@@ -4601,18 +4601,18 @@
         <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -4633,18 +4633,18 @@
         <v>20</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
@@ -4665,7 +4665,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4723,19 +4723,19 @@
         <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>85</v>
@@ -4744,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -4767,7 +4767,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="3">
         <v>0.8</v>
@@ -4805,7 +4805,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -4881,7 +4881,7 @@
         <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3">
         <v>0.8</v>
@@ -4899,12 +4899,12 @@
         <v>12.1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>89</v>
@@ -4919,7 +4919,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3">
         <v>10.199999999999999</v>
@@ -4957,7 +4957,7 @@
         <v>120</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -4996,7 +4996,7 @@
         <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -5035,7 +5035,7 @@
         <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="3">
         <v>0.8</v>
@@ -5053,15 +5053,15 @@
         <v>76</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3">
         <v>1.5</v>
@@ -5073,7 +5073,7 @@
         <v>120</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <v>1.75</v>
@@ -5184,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2">
         <v>1.83</v>
@@ -5210,7 +5210,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2">
         <v>1.95</v>
@@ -5236,7 +5236,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2">
         <v>2.1</v>
@@ -5262,7 +5262,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2">
         <v>2.2999999999999998</v>
@@ -5288,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2">
         <v>3.45</v>
@@ -5314,7 +5314,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2">
         <v>5.85</v>
@@ -5340,7 +5340,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2">
         <v>6.4</v>
@@ -5401,16 +5401,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5421,10 +5421,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>201</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -5436,7 +5436,7 @@
         <v>98</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5444,10 +5444,10 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -5459,7 +5459,7 @@
         <v>98</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,10 +5467,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -5482,7 +5482,7 @@
         <v>98</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5490,10 +5490,10 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -5505,18 +5505,18 @@
         <v>98</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
         <v>207</v>
       </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -5528,18 +5528,18 @@
         <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -5551,18 +5551,18 @@
         <v>98.3</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
         <v>211</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
       </c>
       <c r="D8">
         <v>60</v>
@@ -5574,18 +5574,18 @@
         <v>98.6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -5597,18 +5597,18 @@
         <v>98.5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -5620,7 +5620,7 @@
         <v>98.6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5628,10 +5628,10 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11">
         <v>125</v>
@@ -5643,7 +5643,7 @@
         <v>95</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,10 +5651,10 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12">
         <v>125</v>
@@ -5666,18 +5666,18 @@
         <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
-        <v>221</v>
-      </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -5689,18 +5689,18 @@
         <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14">
         <v>63</v>
@@ -5712,18 +5712,18 @@
         <v>98</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
         <v>224</v>
       </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -5735,18 +5735,18 @@
         <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16">
         <v>80</v>
@@ -5758,7 +5758,7 @@
         <v>96</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1298" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198F0DD6-B499-4014-8DC2-333D1DCCF19F}"/>
+  <xr:revisionPtr revIDLastSave="1315" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016446B5-8AAE-4CC9-82D1-D48A6FFC40D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="261">
   <si>
     <t>celltype</t>
   </si>
@@ -815,7 +815,16 @@
     <t>DOD (%)</t>
   </si>
   <si>
-    <t>efficiency (%)</t>
+    <t>I_min (A)</t>
+  </si>
+  <si>
+    <t>V_nom (V)</t>
+  </si>
+  <si>
+    <t>bat_efficiency (%)</t>
+  </si>
+  <si>
+    <t>rc_efficiency (%)</t>
   </si>
 </sst>
 </file>
@@ -4139,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE53B0C-C8A9-4E0B-B49A-45313A734E0F}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,12 +4160,12 @@
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="96.85546875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="6" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="96.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4176,19 +4185,25 @@
         <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -4208,19 +4223,26 @@
         <v>11.5</v>
       </c>
       <c r="G2" s="3">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3">
         <v>17.5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
+        <f>0.1*H2</f>
+        <v>1.75</v>
+      </c>
+      <c r="J2" s="3">
         <v>80</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -4240,19 +4262,26 @@
         <v>11.5</v>
       </c>
       <c r="G3" s="3">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
         <v>19.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I16" si="0">0.1*H3</f>
+        <v>1.9300000000000002</v>
+      </c>
+      <c r="J3" s="3">
         <v>80</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
@@ -4272,19 +4301,26 @@
         <v>11.5</v>
       </c>
       <c r="G4" s="3">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
         <v>21</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="J4" s="3">
         <v>80</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>20</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
@@ -4304,19 +4340,26 @@
         <v>11.5</v>
       </c>
       <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
         <v>23.8</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3800000000000003</v>
+      </c>
+      <c r="J5" s="3">
         <v>80</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>20</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
@@ -4336,19 +4379,26 @@
         <v>11.5</v>
       </c>
       <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
         <v>26.6</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="J6" s="3">
         <v>80</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -4368,19 +4418,26 @@
         <v>11.5</v>
       </c>
       <c r="G7" s="3">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3">
         <v>30</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
         <v>80</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>20</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
@@ -4400,19 +4457,26 @@
         <v>11.5</v>
       </c>
       <c r="G8" s="3">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
         <v>33.4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>3.34</v>
+      </c>
+      <c r="J8" s="3">
         <v>80</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -4432,19 +4496,26 @@
         <v>11.5</v>
       </c>
       <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
         <v>40.4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.04</v>
+      </c>
+      <c r="J9" s="3">
         <v>80</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
@@ -4464,19 +4535,26 @@
         <v>11.5</v>
       </c>
       <c r="G10" s="3">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
         <v>47</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="J10" s="3">
         <v>80</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>104</v>
       </c>
@@ -4496,19 +4574,26 @@
         <v>8.25</v>
       </c>
       <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
         <v>20</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
         <v>95</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>30</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
@@ -4528,19 +4613,26 @@
         <v>11</v>
       </c>
       <c r="G12" s="3">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3">
         <v>150</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
         <v>96</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -4560,19 +4652,26 @@
         <v>10.9</v>
       </c>
       <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3">
         <v>120</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3">
         <v>90</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>30</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
@@ -4592,19 +4691,26 @@
         <v>9.5</v>
       </c>
       <c r="G14" s="3">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>90</v>
+      </c>
+      <c r="K14" s="3">
         <v>30</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -4624,19 +4730,26 @@
         <v>20</v>
       </c>
       <c r="G15" s="3">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <v>90</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>20</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
@@ -4656,36 +4769,43 @@
         <v>39</v>
       </c>
       <c r="G16" s="3">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <v>90</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{078E3298-D4FC-46A2-B694-E26AAF71DA56}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{4D6D816B-209A-4844-8B69-F28FD2D8E17E}"/>
-    <hyperlink ref="J9" r:id="rId3" xr:uid="{2904B697-EA5A-4560-AAB4-87F51DBD4A69}"/>
-    <hyperlink ref="J10" r:id="rId4" xr:uid="{35E73802-1D36-47D6-9DA5-0BDA11225BA5}"/>
-    <hyperlink ref="J11" r:id="rId5" xr:uid="{D3D4EEDE-883F-4CB5-93C2-C05DE08ADF0F}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{CB9C8D73-5BEA-46E6-B16B-6B8091285306}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{159FB881-EF50-427C-8105-5570AFAED81C}"/>
-    <hyperlink ref="J14" r:id="rId8" xr:uid="{06575CE3-5C7E-4FD1-B6B5-133A0368565C}"/>
-    <hyperlink ref="J15" r:id="rId9" xr:uid="{1BA2A500-0A35-4BD1-9C1C-119E39B16A58}"/>
-    <hyperlink ref="J16" r:id="rId10" xr:uid="{E7ACB55F-17D2-4831-8E44-8E7414053249}"/>
-    <hyperlink ref="J2" r:id="rId11" xr:uid="{2E93594C-DA38-4FBE-81B6-DDD99442722F}"/>
-    <hyperlink ref="J3" r:id="rId12" xr:uid="{6741ACD8-C7B6-48C5-B0BB-57B890795848}"/>
-    <hyperlink ref="J4" r:id="rId13" xr:uid="{DBF05A19-BC3F-4943-9492-91B7CC38312D}"/>
-    <hyperlink ref="J5" r:id="rId14" xr:uid="{202480BD-CE69-48B4-9EAF-5A5FF2368174}"/>
-    <hyperlink ref="J6" r:id="rId15" xr:uid="{D36AC9B4-E528-443D-B2A2-253EA8C993DE}"/>
+    <hyperlink ref="L7" r:id="rId1" xr:uid="{078E3298-D4FC-46A2-B694-E26AAF71DA56}"/>
+    <hyperlink ref="L8" r:id="rId2" xr:uid="{4D6D816B-209A-4844-8B69-F28FD2D8E17E}"/>
+    <hyperlink ref="L9" r:id="rId3" xr:uid="{2904B697-EA5A-4560-AAB4-87F51DBD4A69}"/>
+    <hyperlink ref="L10" r:id="rId4" xr:uid="{35E73802-1D36-47D6-9DA5-0BDA11225BA5}"/>
+    <hyperlink ref="L11" r:id="rId5" xr:uid="{D3D4EEDE-883F-4CB5-93C2-C05DE08ADF0F}"/>
+    <hyperlink ref="L12" r:id="rId6" xr:uid="{CB9C8D73-5BEA-46E6-B16B-6B8091285306}"/>
+    <hyperlink ref="L13" r:id="rId7" xr:uid="{159FB881-EF50-427C-8105-5570AFAED81C}"/>
+    <hyperlink ref="L14" r:id="rId8" xr:uid="{06575CE3-5C7E-4FD1-B6B5-133A0368565C}"/>
+    <hyperlink ref="L15" r:id="rId9" xr:uid="{1BA2A500-0A35-4BD1-9C1C-119E39B16A58}"/>
+    <hyperlink ref="L16" r:id="rId10" xr:uid="{E7ACB55F-17D2-4831-8E44-8E7414053249}"/>
+    <hyperlink ref="L2" r:id="rId11" xr:uid="{2E93594C-DA38-4FBE-81B6-DDD99442722F}"/>
+    <hyperlink ref="L3" r:id="rId12" xr:uid="{6741ACD8-C7B6-48C5-B0BB-57B890795848}"/>
+    <hyperlink ref="L4" r:id="rId13" xr:uid="{DBF05A19-BC3F-4943-9492-91B7CC38312D}"/>
+    <hyperlink ref="L5" r:id="rId14" xr:uid="{202480BD-CE69-48B4-9EAF-5A5FF2368174}"/>
+    <hyperlink ref="L6" r:id="rId15" xr:uid="{D36AC9B4-E528-443D-B2A2-253EA8C993DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5380,9 +5500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E26618-CC37-4259-9107-9A67A124EBED}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5410,7 +5528,7 @@
         <v>204</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>

--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1315" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016446B5-8AAE-4CC9-82D1-D48A6FFC40D5}"/>
+  <xr:revisionPtr revIDLastSave="1347" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832A1DCE-8FF0-4EDE-B142-D7CF3BFE78CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="265">
   <si>
     <t>celltype</t>
   </si>
@@ -632,199 +632,211 @@
     <t>12-TSG-110</t>
   </si>
   <si>
+    <t>12/24/48</t>
+  </si>
+  <si>
+    <t>MPPT 75/10</t>
+  </si>
+  <si>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>MPPT 75/15</t>
+  </si>
+  <si>
+    <t>MPPT 100/15</t>
+  </si>
+  <si>
+    <t>MPPT 100/20</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q</t>
+  </si>
+  <si>
+    <t>EPEVER</t>
+  </si>
+  <si>
+    <t>Tracer6210AN</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYgsv5zAAz9EjADadoGC55QBPZvN4Kbc4LBszRh8HFpP8w?e=d0KGLP</t>
+  </si>
+  <si>
+    <t>Tracer5415AN</t>
+  </si>
+  <si>
+    <t>Tracer6415AN</t>
+  </si>
+  <si>
+    <t>12/24/36/48</t>
+  </si>
+  <si>
+    <t>12/24/36/49</t>
+  </si>
+  <si>
+    <t>Tracer8415AN</t>
+  </si>
+  <si>
+    <t>12/24/36/50</t>
+  </si>
+  <si>
+    <t>Tracer10415AN</t>
+  </si>
+  <si>
+    <t>WIND 13+</t>
+  </si>
+  <si>
+    <t>WIND 23+</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYK_wdMf8PtOpFqYuvGT3boBQtXLl8YMuWP80_6uobCjzw?e=sASVqc</t>
+  </si>
+  <si>
+    <t>SPRECO</t>
+  </si>
+  <si>
+    <t>SilentShark s401</t>
+  </si>
+  <si>
+    <t>SilentShark s601</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EQZfQK33kxlBmTtbFghDkOUB0lOfZlj5hM5mfzu5mUoH9g?e=cNKhCm</t>
+  </si>
+  <si>
+    <t>OutBack POWER</t>
+  </si>
+  <si>
+    <t>FLEXmax60</t>
+  </si>
+  <si>
+    <t>FLEXmax80</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/Ef8k6WTAdNdOkP_MtmipDysBbqBgX86JgQt-l9Aq0PfnRQ?e=cz3yPe</t>
+  </si>
+  <si>
+    <t>WindPower</t>
+  </si>
+  <si>
+    <t>MXWND-001</t>
+  </si>
+  <si>
+    <t>MXWND-002</t>
+  </si>
+  <si>
+    <t>MXWND-003</t>
+  </si>
+  <si>
+    <t>MXWND-004</t>
+  </si>
+  <si>
+    <t>MXWND-005</t>
+  </si>
+  <si>
+    <t>MXWND-006</t>
+  </si>
+  <si>
+    <t>MXWND-007</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM</t>
+  </si>
+  <si>
+    <t>Powest</t>
+  </si>
+  <si>
+    <t>5kW</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EezI42P0lmFNomaTssnWCdEBUlcrxyrrCWy-3kS4DzH2gg?e=z3bWuC</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/ES8ZrTTGDBdApLmeHSrMj-kBq3kGkthippBDT1ZbQCTuww?e=pfS24i</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>SUN-1000G2</t>
+  </si>
+  <si>
+    <t>SUN-2000G2</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EYm_4LkVSpJEj1WpK4odRCwBhDV2J-A0SbQBdjIzXTr-HQ?e=PYLX0W</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>UNO-2.0-I-OUTD</t>
+  </si>
+  <si>
+    <t>UNO-2.5-I-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-3.0-TL-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-3.6-TL-OUTD</t>
+  </si>
+  <si>
+    <t>PVI-4.2-TL-OUTD</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/Ee30UNqVhoBPtBziUtGSgS8B6bQuadtpqpk1SR5Xz8DKqA?e=1alcBP</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm</t>
+  </si>
+  <si>
+    <t>MPPT_WIND-13_Plus</t>
+  </si>
+  <si>
+    <t>MPPT_WIND-15_Plus</t>
+  </si>
+  <si>
+    <t>bat_type</t>
+  </si>
+  <si>
+    <t>Vbb_nom (V)</t>
+  </si>
+  <si>
+    <t>DOD (%)</t>
+  </si>
+  <si>
+    <t>I_min (A)</t>
+  </si>
+  <si>
+    <t>V_nom (V)</t>
+  </si>
+  <si>
+    <t>bat_efficiency (%)</t>
+  </si>
+  <si>
+    <t>rc_efficiency (%)</t>
+  </si>
+  <si>
+    <t>SOC_0</t>
+  </si>
+  <si>
+    <t>SOC_ETP1</t>
+  </si>
+  <si>
+    <t>SOC_ETP2</t>
+  </si>
+  <si>
+    <t>SOC_conx</t>
+  </si>
+  <si>
+    <t>SOC_max</t>
+  </si>
+  <si>
+    <t>SOC_min</t>
+  </si>
+  <si>
     <t>Vdc_bb (V)</t>
-  </si>
-  <si>
-    <t>Imax_bb(V)</t>
-  </si>
-  <si>
-    <t>12/24/48</t>
-  </si>
-  <si>
-    <t>MPPT 75/10</t>
-  </si>
-  <si>
-    <t>12/24</t>
-  </si>
-  <si>
-    <t>MPPT 75/15</t>
-  </si>
-  <si>
-    <t>MPPT 100/15</t>
-  </si>
-  <si>
-    <t>MPPT 100/20</t>
-  </si>
-  <si>
-    <t>Pmax (kW)</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q</t>
-  </si>
-  <si>
-    <t>EPEVER</t>
-  </si>
-  <si>
-    <t>Tracer6210AN</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYgsv5zAAz9EjADadoGC55QBPZvN4Kbc4LBszRh8HFpP8w?e=d0KGLP</t>
-  </si>
-  <si>
-    <t>Tracer5415AN</t>
-  </si>
-  <si>
-    <t>Tracer6415AN</t>
-  </si>
-  <si>
-    <t>12/24/36/48</t>
-  </si>
-  <si>
-    <t>12/24/36/49</t>
-  </si>
-  <si>
-    <t>Tracer8415AN</t>
-  </si>
-  <si>
-    <t>12/24/36/50</t>
-  </si>
-  <si>
-    <t>Tracer10415AN</t>
-  </si>
-  <si>
-    <t>WIND 13+</t>
-  </si>
-  <si>
-    <t>WIND 23+</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYK_wdMf8PtOpFqYuvGT3boBQtXLl8YMuWP80_6uobCjzw?e=sASVqc</t>
-  </si>
-  <si>
-    <t>SPRECO</t>
-  </si>
-  <si>
-    <t>SilentShark s401</t>
-  </si>
-  <si>
-    <t>SilentShark s601</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EQZfQK33kxlBmTtbFghDkOUB0lOfZlj5hM5mfzu5mUoH9g?e=cNKhCm</t>
-  </si>
-  <si>
-    <t>OutBack POWER</t>
-  </si>
-  <si>
-    <t>FLEXmax60</t>
-  </si>
-  <si>
-    <t>FLEXmax80</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/Ef8k6WTAdNdOkP_MtmipDysBbqBgX86JgQt-l9Aq0PfnRQ?e=cz3yPe</t>
-  </si>
-  <si>
-    <t>WindPower</t>
-  </si>
-  <si>
-    <t>MXWND-001</t>
-  </si>
-  <si>
-    <t>MXWND-002</t>
-  </si>
-  <si>
-    <t>MXWND-003</t>
-  </si>
-  <si>
-    <t>MXWND-004</t>
-  </si>
-  <si>
-    <t>MXWND-005</t>
-  </si>
-  <si>
-    <t>MXWND-006</t>
-  </si>
-  <si>
-    <t>MXWND-007</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM</t>
-  </si>
-  <si>
-    <t>Powest</t>
-  </si>
-  <si>
-    <t>5kW</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EezI42P0lmFNomaTssnWCdEBUlcrxyrrCWy-3kS4DzH2gg?e=z3bWuC</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/ES8ZrTTGDBdApLmeHSrMj-kBq3kGkthippBDT1ZbQCTuww?e=pfS24i</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>SUN-1000G2</t>
-  </si>
-  <si>
-    <t>SUN-2000G2</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/EYm_4LkVSpJEj1WpK4odRCwBhDV2J-A0SbQBdjIzXTr-HQ?e=PYLX0W</t>
-  </si>
-  <si>
-    <t>ABB</t>
-  </si>
-  <si>
-    <t>UNO-2.0-I-OUTD</t>
-  </si>
-  <si>
-    <t>UNO-2.5-I-OUTD</t>
-  </si>
-  <si>
-    <t>PVI-3.0-TL-OUTD</t>
-  </si>
-  <si>
-    <t>PVI-3.6-TL-OUTD</t>
-  </si>
-  <si>
-    <t>PVI-4.2-TL-OUTD</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/Ee30UNqVhoBPtBziUtGSgS8B6bQuadtpqpk1SR5Xz8DKqA?e=1alcBP</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm</t>
-  </si>
-  <si>
-    <t>MPPT_WIND-13_Plus</t>
-  </si>
-  <si>
-    <t>MPPT_WIND-15_Plus</t>
-  </si>
-  <si>
-    <t>bat_type</t>
-  </si>
-  <si>
-    <t>Vbb_nom (V)</t>
-  </si>
-  <si>
-    <t>DOD (%)</t>
-  </si>
-  <si>
-    <t>I_min (A)</t>
-  </si>
-  <si>
-    <t>V_nom (V)</t>
-  </si>
-  <si>
-    <t>bat_efficiency (%)</t>
-  </si>
-  <si>
-    <t>rc_efficiency (%)</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2726,7 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>179</v>
@@ -3563,7 +3575,7 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>179</v>
@@ -3574,10 +3586,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>60</v>
@@ -3598,15 +3610,15 @@
         <v>90</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>60</v>
@@ -3627,15 +3639,15 @@
         <v>90</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
         <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
@@ -3656,15 +3668,15 @@
         <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>60</v>
@@ -3685,15 +3697,15 @@
         <v>90</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>60</v>
@@ -3714,15 +3726,15 @@
         <v>90</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
@@ -3743,15 +3755,15 @@
         <v>90</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
@@ -3772,15 +3784,15 @@
         <v>90</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
@@ -3801,15 +3813,15 @@
         <v>90</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>58</v>
@@ -3833,7 +3845,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3841,7 +3853,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -3859,13 +3871,13 @@
         <v>230</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I11" s="3">
         <v>98</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3873,7 +3885,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>58</v>
@@ -3891,21 +3903,21 @@
         <v>230</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3">
         <v>98</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>60</v>
@@ -3926,15 +3938,15 @@
         <v>90</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>60</v>
@@ -3955,15 +3967,15 @@
         <v>92</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
@@ -3984,15 +3996,15 @@
         <v>96.3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
@@ -4013,15 +4025,15 @@
         <v>96.3</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
         <v>244</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>60</v>
@@ -4042,15 +4054,15 @@
         <v>96.8</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>60</v>
@@ -4071,15 +4083,15 @@
         <v>96.8</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
@@ -4100,7 +4112,7 @@
         <v>96.8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4173,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>102</v>
@@ -4185,19 +4197,19 @@
         <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -5498,7 +5510,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E26618-CC37-4259-9107-9A67A124EBED}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5506,12 +5518,12 @@
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="94.85546875" customWidth="1"/>
+    <col min="3" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="94.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5519,382 +5531,574 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>260</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0.28999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
         <v>98</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
         <v>98</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>98</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0.44</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>98</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>203</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F5">
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
         <v>98</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>98.3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
         <v>207</v>
       </c>
-      <c r="C6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="C8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+      <c r="J8">
+        <v>98.6</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
         <v>209</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>98.5</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
         <v>211</v>
       </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>2.5</v>
-      </c>
-      <c r="F7">
-        <v>98.3</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
+      <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
         <v>98.6</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>98.5</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>98.6</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
         <v>95</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
       <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <v>95</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
         <v>217</v>
       </c>
-      <c r="C12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12">
-        <v>125</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>95</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.6</v>
+      </c>
+      <c r="J13">
+        <v>98</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <v>98</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>220</v>
       </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F13">
-        <v>98</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>0.9</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>96</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>0.7</v>
-      </c>
-      <c r="F14">
-        <v>98</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16">
+        <v>96</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>3.2</v>
-      </c>
-      <c r="F15">
-        <v>96</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>96</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{3A98F61D-8E57-4484-B485-C166C741F8D4}"/>
-    <hyperlink ref="G3:G5" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q" xr:uid="{BF83740C-2805-42EF-8AC1-673A33E4FBD3}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{ABCAE16B-4C80-4E0E-941F-63752AE1DDE8}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{C80A928B-8A29-408E-8229-63FA7322D23A}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{C3DBF839-8179-4A42-A49F-82E7E3DF339F}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{6B6F0475-AD41-4235-BC47-8EAE02D81A57}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{34BE17A2-14DB-4470-B758-FFBF016A9D64}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{1FCEB8DD-12AA-46FC-8B43-7A49A94648D4}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{2786A8C8-27B9-4123-A9A7-7EBDAD3CCA6E}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{C3311F9D-3824-4AAB-93C3-2EB070746598}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{BD30B4A2-FB99-4945-8B2F-4AD9F1680FFA}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{BE4FC19A-B5A0-473E-A532-2AE948E4E469}"/>
-    <hyperlink ref="G16" r:id="rId13" xr:uid="{183FD10F-FB7E-4842-9A38-3A0EE1DDD894}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{3A98F61D-8E57-4484-B485-C166C741F8D4}"/>
+    <hyperlink ref="K3:K5" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EdGCheTzGTVFjIxXtX1viv0BY1usCwQjFRexXFGYG1jHpw?e=9TXt6q" xr:uid="{BF83740C-2805-42EF-8AC1-673A33E4FBD3}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{ABCAE16B-4C80-4E0E-941F-63752AE1DDE8}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{C80A928B-8A29-408E-8229-63FA7322D23A}"/>
+    <hyperlink ref="K8" r:id="rId5" xr:uid="{C3DBF839-8179-4A42-A49F-82E7E3DF339F}"/>
+    <hyperlink ref="K9" r:id="rId6" xr:uid="{6B6F0475-AD41-4235-BC47-8EAE02D81A57}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{34BE17A2-14DB-4470-B758-FFBF016A9D64}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{1FCEB8DD-12AA-46FC-8B43-7A49A94648D4}"/>
+    <hyperlink ref="K12" r:id="rId9" xr:uid="{2786A8C8-27B9-4123-A9A7-7EBDAD3CCA6E}"/>
+    <hyperlink ref="K13" r:id="rId10" xr:uid="{C3311F9D-3824-4AAB-93C3-2EB070746598}"/>
+    <hyperlink ref="K14" r:id="rId11" xr:uid="{BD30B4A2-FB99-4945-8B2F-4AD9F1680FFA}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{BE4FC19A-B5A0-473E-A532-2AE948E4E469}"/>
+    <hyperlink ref="K16" r:id="rId13" xr:uid="{183FD10F-FB7E-4842-9A38-3A0EE1DDD894}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/files/[DATA] - Components.xlsx
+++ b/files/[DATA] - Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65497f5d021f6cf8/GitHub/apps-energy-generation/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1347" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832A1DCE-8FF0-4EDE-B142-D7CF3BFE78CA}"/>
+  <xr:revisionPtr revIDLastSave="1350" documentId="13_ncr:1_{D0E2ADC4-7740-4D28-A167-69040FE927D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69CA9227-ABD7-405F-9263-DC6FE64BD6F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5288DA86-F59F-4949-AE60-35568312F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="269">
   <si>
     <t>celltype</t>
   </si>
@@ -800,9 +800,6 @@
     <t>bat_type</t>
   </si>
   <si>
-    <t>Vbb_nom (V)</t>
-  </si>
-  <si>
     <t>DOD (%)</t>
   </si>
   <si>
@@ -837,6 +834,21 @@
   </si>
   <si>
     <t>Vdc_bb (V)</t>
+  </si>
+  <si>
+    <t>LIVOLTEX</t>
+  </si>
+  <si>
+    <t>GF1-3K48L1</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/b/c/952130943b0dd709/EaX1MhStZ9JIpPwwK8KNFn8BiCnudCd_qBmpRN1KyS9eSw?e=Gsmaft</t>
+  </si>
+  <si>
+    <t>GF1-3K48S1</t>
+  </si>
+  <si>
+    <t>GF1-5K48S1</t>
   </si>
 </sst>
 </file>
@@ -2682,11 +2694,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD4EA4-558D-4153-886C-368655763902}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,13 +2709,12 @@
     <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="3"/>
-    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="96.42578125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="96.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2726,16 +2737,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>183</v>
       </c>
@@ -2758,16 +2766,13 @@
         <v>127</v>
       </c>
       <c r="H2" s="3">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3">
         <v>90</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
@@ -2790,16 +2795,13 @@
         <v>127</v>
       </c>
       <c r="H3" s="3">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>183</v>
       </c>
@@ -2822,16 +2824,13 @@
         <v>127</v>
       </c>
       <c r="H4" s="3">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -2854,16 +2853,13 @@
         <v>127</v>
       </c>
       <c r="H5" s="3">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3">
         <v>92</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -2886,16 +2882,13 @@
         <v>127</v>
       </c>
       <c r="H6" s="3">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3">
         <v>94</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -2918,16 +2911,13 @@
         <v>127</v>
       </c>
       <c r="H7" s="3">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3">
         <v>93</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -2950,16 +2940,13 @@
         <v>127</v>
       </c>
       <c r="H8" s="3">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3">
         <v>94</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2981,14 +2968,14 @@
       <c r="G9" s="3">
         <v>240</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>97.9</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -3010,14 +2997,14 @@
       <c r="G10" s="3">
         <v>240</v>
       </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>97.9</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3039,14 +3026,14 @@
       <c r="G11" s="3">
         <v>240</v>
       </c>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
         <v>97.9</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -3068,14 +3055,14 @@
       <c r="G12" s="3">
         <v>240</v>
       </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
         <v>97.9</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -3097,14 +3084,14 @@
       <c r="G13" s="3">
         <v>240</v>
       </c>
-      <c r="I13" s="3">
+      <c r="H13" s="3">
         <v>97.9</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
@@ -3126,14 +3113,14 @@
       <c r="G14" s="3">
         <v>264</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
         <v>98.2</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
@@ -3155,14 +3142,14 @@
       <c r="G15" s="3">
         <v>264</v>
       </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
         <v>98.2</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
@@ -3184,14 +3171,14 @@
       <c r="G16" s="3">
         <v>264</v>
       </c>
-      <c r="I16" s="3">
+      <c r="H16" s="3">
         <v>98.2</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
@@ -3213,14 +3200,14 @@
       <c r="G17" s="3">
         <v>264</v>
       </c>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
         <v>98.4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
@@ -3242,14 +3229,14 @@
       <c r="G18" s="3">
         <v>264</v>
       </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
         <v>98.4</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
@@ -3271,14 +3258,14 @@
       <c r="G19" s="3">
         <v>264</v>
       </c>
-      <c r="I19" s="3">
+      <c r="H19" s="3">
         <v>98.4</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>134</v>
       </c>
@@ -3300,14 +3287,14 @@
       <c r="G20" s="3">
         <v>264</v>
       </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
         <v>98.4</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>134</v>
       </c>
@@ -3330,16 +3317,13 @@
         <v>240</v>
       </c>
       <c r="H21" s="3">
-        <v>48</v>
-      </c>
-      <c r="I21" s="3">
         <v>85</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>134</v>
       </c>
@@ -3362,16 +3346,13 @@
         <v>240</v>
       </c>
       <c r="H22" s="3">
-        <v>48</v>
-      </c>
-      <c r="I22" s="3">
         <v>85</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
@@ -3394,16 +3375,13 @@
         <v>240</v>
       </c>
       <c r="H23" s="3">
-        <v>48</v>
-      </c>
-      <c r="I23" s="3">
         <v>85</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>134</v>
       </c>
@@ -3426,16 +3404,13 @@
         <v>240</v>
       </c>
       <c r="H24" s="3">
-        <v>48</v>
-      </c>
-      <c r="I24" s="3">
         <v>85</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>134</v>
       </c>
@@ -3458,16 +3433,13 @@
         <v>240</v>
       </c>
       <c r="H25" s="3">
-        <v>48</v>
-      </c>
-      <c r="I25" s="3">
         <v>85</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
@@ -3490,40 +3462,127 @@
         <v>240</v>
       </c>
       <c r="H26" s="3">
-        <v>48</v>
-      </c>
-      <c r="I26" s="3">
         <v>85</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>120</v>
+      </c>
+      <c r="G27" s="3">
+        <v>126</v>
+      </c>
+      <c r="H27" s="3">
+        <v>94</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>220</v>
+      </c>
+      <c r="G28" s="3">
+        <v>231</v>
+      </c>
+      <c r="H28" s="3">
+        <v>94</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>220</v>
+      </c>
+      <c r="G29" s="3">
+        <v>231</v>
+      </c>
+      <c r="H29" s="3">
+        <v>94</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{0EAF0DDD-02D0-4652-B1A1-C61A4BDFCC46}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{685BF51C-CBE4-4BE1-BA9B-6C688F916A64}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{9BDC9D51-4F56-4D04-9A28-969989EEC1F9}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{67FE5840-8708-4394-99A0-B5CEA82E3B06}"/>
-    <hyperlink ref="J9" r:id="rId5" xr:uid="{DC2C7285-1EF3-44F2-ADD6-75251BD3EBC3}"/>
-    <hyperlink ref="J10" r:id="rId6" xr:uid="{C298899C-9002-48F8-8079-99E0C1D8AE00}"/>
-    <hyperlink ref="J11" r:id="rId7" xr:uid="{60C99629-0317-4A71-9F5E-B74179979990}"/>
-    <hyperlink ref="J12" r:id="rId8" xr:uid="{230D2D83-3C4E-4F69-B985-5C33D702411A}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{A10760CF-144B-41B5-945F-21406BEBD19A}"/>
-    <hyperlink ref="J14" r:id="rId10" xr:uid="{41C0F82F-A257-4F6F-A1AE-E5C03F6C182B}"/>
-    <hyperlink ref="J15" r:id="rId11" xr:uid="{3FEC3434-4C47-402D-BED2-9DC5E1B7E688}"/>
-    <hyperlink ref="J16" r:id="rId12" xr:uid="{F9EC6AE8-7C1A-44D6-9EB6-FD966E66A38E}"/>
-    <hyperlink ref="J17" r:id="rId13" xr:uid="{C13B6AE0-E08F-4CE1-8E75-461DFF309E4D}"/>
-    <hyperlink ref="J18" r:id="rId14" xr:uid="{126383E4-4E7C-4418-AF33-7EF5ACFC8204}"/>
-    <hyperlink ref="J19" r:id="rId15" xr:uid="{F042E179-F84F-43B1-8A7A-0F7C90B04D0F}"/>
-    <hyperlink ref="J20" r:id="rId16" xr:uid="{AA8D6754-A13A-40CB-A2A7-D375C5701C73}"/>
-    <hyperlink ref="J21" r:id="rId17" xr:uid="{7D97221A-84BA-4E3E-B104-E45B710A7776}"/>
-    <hyperlink ref="J22" r:id="rId18" xr:uid="{D16DC1FB-87D4-41EA-8D8F-879FCBCEA853}"/>
-    <hyperlink ref="J23" r:id="rId19" xr:uid="{2BE247DC-7429-4575-948B-5C96BC8EFD12}"/>
-    <hyperlink ref="J24" r:id="rId20" xr:uid="{37E6BDF4-1663-4311-B387-8B388F17BA4D}"/>
-    <hyperlink ref="J25" r:id="rId21" xr:uid="{081684D3-55C2-44EE-B3BB-4F092EC84435}"/>
-    <hyperlink ref="J26" r:id="rId22" xr:uid="{6DD23EAA-9459-440A-A35C-BDEAB1673830}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{0EAF0DDD-02D0-4652-B1A1-C61A4BDFCC46}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{685BF51C-CBE4-4BE1-BA9B-6C688F916A64}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{9BDC9D51-4F56-4D04-9A28-969989EEC1F9}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{67FE5840-8708-4394-99A0-B5CEA82E3B06}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{DC2C7285-1EF3-44F2-ADD6-75251BD3EBC3}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{C298899C-9002-48F8-8079-99E0C1D8AE00}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{60C99629-0317-4A71-9F5E-B74179979990}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{230D2D83-3C4E-4F69-B985-5C33D702411A}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{A10760CF-144B-41B5-945F-21406BEBD19A}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{41C0F82F-A257-4F6F-A1AE-E5C03F6C182B}"/>
+    <hyperlink ref="I15" r:id="rId11" xr:uid="{3FEC3434-4C47-402D-BED2-9DC5E1B7E688}"/>
+    <hyperlink ref="I16" r:id="rId12" xr:uid="{F9EC6AE8-7C1A-44D6-9EB6-FD966E66A38E}"/>
+    <hyperlink ref="I17" r:id="rId13" xr:uid="{C13B6AE0-E08F-4CE1-8E75-461DFF309E4D}"/>
+    <hyperlink ref="I18" r:id="rId14" xr:uid="{126383E4-4E7C-4418-AF33-7EF5ACFC8204}"/>
+    <hyperlink ref="I19" r:id="rId15" xr:uid="{F042E179-F84F-43B1-8A7A-0F7C90B04D0F}"/>
+    <hyperlink ref="I20" r:id="rId16" xr:uid="{AA8D6754-A13A-40CB-A2A7-D375C5701C73}"/>
+    <hyperlink ref="I21" r:id="rId17" xr:uid="{7D97221A-84BA-4E3E-B104-E45B710A7776}"/>
+    <hyperlink ref="I22" r:id="rId18" xr:uid="{D16DC1FB-87D4-41EA-8D8F-879FCBCEA853}"/>
+    <hyperlink ref="I23" r:id="rId19" xr:uid="{2BE247DC-7429-4575-948B-5C96BC8EFD12}"/>
+    <hyperlink ref="I24" r:id="rId20" xr:uid="{37E6BDF4-1663-4311-B387-8B388F17BA4D}"/>
+    <hyperlink ref="I25" r:id="rId21" xr:uid="{081684D3-55C2-44EE-B3BB-4F092EC84435}"/>
+    <hyperlink ref="I26" r:id="rId22" xr:uid="{6DD23EAA-9459-440A-A35C-BDEAB1673830}"/>
+    <hyperlink ref="I27" r:id="rId23" xr:uid="{72018AD7-5755-4D67-B5F4-DE7FA204EC68}"/>
+    <hyperlink ref="I28" r:id="rId24" xr:uid="{66EECEA8-4FE2-483C-A7EB-D56EC6EA49E4}"/>
+    <hyperlink ref="I29" r:id="rId25" xr:uid="{1849BC7C-497E-4FD4-8AF4-3559AC4E3972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3531,11 +3590,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126EFFA2-F458-48B0-842D-FAC06F6B01E7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,13 +3605,12 @@
     <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="3"/>
-    <col min="8" max="8" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="96.42578125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="96.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3575,16 +3633,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>224</v>
       </c>
@@ -3606,14 +3661,14 @@
       <c r="G2" s="3">
         <v>127</v>
       </c>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
         <v>90</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>224</v>
       </c>
@@ -3635,14 +3690,14 @@
       <c r="G3" s="3">
         <v>230</v>
       </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
         <v>90</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>224</v>
       </c>
@@ -3664,14 +3719,14 @@
       <c r="G4" s="3">
         <v>127</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>90</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>224</v>
       </c>
@@ -3693,14 +3748,14 @@
       <c r="G5" s="3">
         <v>230</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>90</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>224</v>
       </c>
@@ -3722,14 +3777,14 @@
       <c r="G6" s="3">
         <v>127</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <v>90</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>224</v>
       </c>
@@ -3751,14 +3806,14 @@
       <c r="G7" s="3">
         <v>230</v>
       </c>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <v>90</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>224</v>
       </c>
@@ -3780,14 +3835,14 @@
       <c r="G8" s="3">
         <v>230</v>
       </c>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>90</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>233</v>
       </c>
@@ -3809,14 +3864,14 @@
       <c r="G9" s="3">
         <v>264.5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>90</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>233</v>
       </c>
@@ -3839,16 +3894,13 @@
         <v>264.5</v>
       </c>
       <c r="H10" s="3">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3">
         <v>90</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -3870,17 +3922,14 @@
       <c r="G11" s="3">
         <v>230</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
         <v>98</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -3902,17 +3951,14 @@
       <c r="G12" s="3">
         <v>230</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
         <v>98</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>237</v>
       </c>
@@ -3934,14 +3980,14 @@
       <c r="G13" s="3">
         <v>140</v>
       </c>
-      <c r="I13" s="3">
+      <c r="H13" s="3">
         <v>90</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>237</v>
       </c>
@@ -3963,14 +4009,14 @@
       <c r="G14" s="3">
         <v>260</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
         <v>92</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>241</v>
       </c>
@@ -3992,14 +4038,14 @@
       <c r="G15" s="3">
         <v>264</v>
       </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
         <v>96.3</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>241</v>
       </c>
@@ -4021,14 +4067,14 @@
       <c r="G16" s="3">
         <v>264</v>
       </c>
-      <c r="I16" s="3">
+      <c r="H16" s="3">
         <v>96.3</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>241</v>
       </c>
@@ -4050,14 +4096,14 @@
       <c r="G17" s="3">
         <v>264</v>
       </c>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
         <v>96.8</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>241</v>
       </c>
@@ -4079,14 +4125,14 @@
       <c r="G18" s="3">
         <v>264</v>
       </c>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
         <v>96.8</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>241</v>
       </c>
@@ -4108,51 +4154,51 @@
       <c r="G19" s="3">
         <v>264</v>
       </c>
-      <c r="I19" s="3">
+      <c r="H19" s="3">
         <v>96.8</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J26" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{FE70D024-47D6-4372-A4C2-D376F012D432}"/>
-    <hyperlink ref="J3:J8" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM" xr:uid="{2330848D-2AFF-4D7E-B0F7-38DF67E09DCC}"/>
-    <hyperlink ref="J9" r:id="rId3" xr:uid="{C149418A-6616-4BBA-9868-E54EEF4E702F}"/>
-    <hyperlink ref="J10" r:id="rId4" xr:uid="{98346689-2DAF-4F11-B28F-2B13E02A26A1}"/>
-    <hyperlink ref="J11" r:id="rId5" xr:uid="{5BC6B1C5-3C0A-4FA4-AF14-B40330536161}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{DE2A95AD-8049-4AF7-8CC3-E91690B72AA1}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{A4C48ED1-1628-4E2D-8590-F5A25D2BF444}"/>
-    <hyperlink ref="J14" r:id="rId8" xr:uid="{435A6142-D5BB-45FF-9E55-7CC12FCBE41B}"/>
-    <hyperlink ref="J15" r:id="rId9" xr:uid="{904F6D95-CB8C-4353-AC33-005800E7E060}"/>
-    <hyperlink ref="J16" r:id="rId10" xr:uid="{BFA1ECAB-8D4F-43AF-B6D5-516D7E26A851}"/>
-    <hyperlink ref="J17" r:id="rId11" xr:uid="{DB3EDF53-600B-4E61-B670-69E612015BFF}"/>
-    <hyperlink ref="J18:J19" r:id="rId12" display="https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm" xr:uid="{0E3190E7-51D4-4ACA-AF17-694AF522502E}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{FE70D024-47D6-4372-A4C2-D376F012D432}"/>
+    <hyperlink ref="I3:I8" r:id="rId2" display="https://1drv.ms/b/c/952130943b0dd709/EcbK0okc4HVBlx116M1UbOQBmXYUlmLH9nhDjhYG1f7oJQ?e=1asiOM" xr:uid="{2330848D-2AFF-4D7E-B0F7-38DF67E09DCC}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{C149418A-6616-4BBA-9868-E54EEF4E702F}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{98346689-2DAF-4F11-B28F-2B13E02A26A1}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{5BC6B1C5-3C0A-4FA4-AF14-B40330536161}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{DE2A95AD-8049-4AF7-8CC3-E91690B72AA1}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{A4C48ED1-1628-4E2D-8590-F5A25D2BF444}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{435A6142-D5BB-45FF-9E55-7CC12FCBE41B}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{904F6D95-CB8C-4353-AC33-005800E7E060}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{BFA1ECAB-8D4F-43AF-B6D5-516D7E26A851}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{DB3EDF53-600B-4E61-B670-69E612015BFF}"/>
+    <hyperlink ref="I18:I19" r:id="rId12" display="https://1drv.ms/b/c/952130943b0dd709/ES-Qt1zn-QtChpeRGl7kx0MBwi_JkD5FGIoyr34MCLXpqg?e=se0Sgm" xr:uid="{0E3190E7-51D4-4ACA-AF17-694AF522502E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4197,19 +4243,19 @@
         <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -5512,7 +5558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E26618-CC37-4259-9107-9A67A124EBED}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5531,28 +5577,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>11</v>
